--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.5944153496764</v>
+        <v>23.46675266090279</v>
       </c>
       <c r="C2">
-        <v>16.10534105934485</v>
+        <v>12.04340689748867</v>
       </c>
       <c r="D2">
-        <v>3.468309751065676</v>
+        <v>2.148829696048624</v>
       </c>
       <c r="E2">
-        <v>9.13657526714975</v>
+        <v>5.779242769973355</v>
       </c>
       <c r="F2">
-        <v>40.19400422484208</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>43.34162411650645</v>
       </c>
       <c r="I2">
-        <v>25.8013273166245</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.994638183271596</v>
+        <v>5.966626593659282</v>
       </c>
       <c r="K2">
-        <v>18.72308579936559</v>
+        <v>18.95821143371051</v>
       </c>
       <c r="L2">
-        <v>12.72490545670374</v>
+        <v>6.596715084602963</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.40124822422758</v>
+      </c>
+      <c r="N2">
+        <v>16.92495179041748</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.11809254763381</v>
+        <v>22.25659791014998</v>
       </c>
       <c r="C3">
-        <v>14.93466840883824</v>
+        <v>11.17358395173881</v>
       </c>
       <c r="D3">
-        <v>3.521430649447805</v>
+        <v>2.150238825845714</v>
       </c>
       <c r="E3">
-        <v>8.617274244765939</v>
+        <v>5.765903788114942</v>
       </c>
       <c r="F3">
-        <v>38.18077447029163</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>42.34349095382288</v>
       </c>
       <c r="I3">
-        <v>24.8841134913982</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.699637670012303</v>
+        <v>6.003532618309991</v>
       </c>
       <c r="K3">
-        <v>17.39746510500388</v>
+        <v>17.98344130998227</v>
       </c>
       <c r="L3">
-        <v>11.80811155543309</v>
+        <v>6.550943732868831</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.97772384522349</v>
+      </c>
+      <c r="N3">
+        <v>17.08846270063413</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.16617306613242</v>
+        <v>21.49943072774866</v>
       </c>
       <c r="C4">
-        <v>14.18145176383519</v>
+        <v>10.6129192544217</v>
       </c>
       <c r="D4">
-        <v>3.554261121786923</v>
+        <v>2.153667634301791</v>
       </c>
       <c r="E4">
-        <v>8.292195776313461</v>
+        <v>5.758255885989165</v>
       </c>
       <c r="F4">
-        <v>36.93668570456956</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>41.7547009319253</v>
       </c>
       <c r="I4">
-        <v>24.33114796709167</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.521132225613282</v>
+        <v>6.026748216654102</v>
       </c>
       <c r="K4">
-        <v>16.54314879357804</v>
+        <v>17.37396916437308</v>
       </c>
       <c r="L4">
-        <v>11.21833579126385</v>
+        <v>6.52587729896954</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.72162937992972</v>
+      </c>
+      <c r="N4">
+        <v>17.19365902360692</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76662058631027</v>
+        <v>21.18765869209065</v>
       </c>
       <c r="C5">
-        <v>13.86566812891133</v>
+        <v>10.37765489115547</v>
       </c>
       <c r="D5">
-        <v>3.567700326701293</v>
+        <v>2.155650019147334</v>
       </c>
       <c r="E5">
-        <v>8.158254666286602</v>
+        <v>5.755263846906045</v>
       </c>
       <c r="F5">
-        <v>36.42807390448436</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>41.52080004096109</v>
       </c>
       <c r="I5">
-        <v>24.10843156593793</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.449084490487556</v>
+        <v>6.036354778690126</v>
       </c>
       <c r="K5">
-        <v>16.18465789605384</v>
+        <v>17.12311597753995</v>
       </c>
       <c r="L5">
-        <v>10.97109482909847</v>
+        <v>6.516412072487375</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.61835407128992</v>
+      </c>
+      <c r="N5">
+        <v>17.23770613815541</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69956651468003</v>
+        <v>21.13570582072773</v>
       </c>
       <c r="C6">
-        <v>13.81269328917105</v>
+        <v>10.33817654806131</v>
       </c>
       <c r="D6">
-        <v>3.569935749594602</v>
+        <v>2.156012872639699</v>
       </c>
       <c r="E6">
-        <v>8.135928629382482</v>
+        <v>5.754774218249419</v>
       </c>
       <c r="F6">
-        <v>36.34353340524385</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>41.48232502525931</v>
       </c>
       <c r="I6">
-        <v>24.0716100395208</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.437164154967486</v>
+        <v>6.037958939811581</v>
       </c>
       <c r="K6">
-        <v>16.12450016127198</v>
+        <v>17.08132067348114</v>
       </c>
       <c r="L6">
-        <v>10.92961962388172</v>
+        <v>6.514885232972779</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.60127363844816</v>
+      </c>
+      <c r="N6">
+        <v>17.24509056913079</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16083194662417</v>
+        <v>21.49523860726614</v>
       </c>
       <c r="C7">
-        <v>14.17722903192684</v>
+        <v>10.60977401491227</v>
       </c>
       <c r="D7">
-        <v>3.55444211361505</v>
+        <v>2.153692075902703</v>
       </c>
       <c r="E7">
-        <v>8.290395194285908</v>
+        <v>5.758215044860797</v>
       </c>
       <c r="F7">
-        <v>36.92983244368636</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>41.75152204575303</v>
       </c>
       <c r="I7">
-        <v>24.32813363223992</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.520157699748912</v>
+        <v>6.02687717470453</v>
       </c>
       <c r="K7">
-        <v>16.53835621669815</v>
+        <v>17.370595749127</v>
       </c>
       <c r="L7">
-        <v>11.21502954987725</v>
+        <v>6.525746631522332</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.72023205268866</v>
+      </c>
+      <c r="N7">
+        <v>17.19424832013486</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.09468212919796</v>
+        <v>23.05260002870466</v>
       </c>
       <c r="C8">
-        <v>15.70871952357967</v>
+        <v>11.7489460827829</v>
       </c>
       <c r="D8">
-        <v>3.4865854089604</v>
+        <v>2.148746353584034</v>
       </c>
       <c r="E8">
-        <v>8.958859285258214</v>
+        <v>5.774523465572406</v>
       </c>
       <c r="F8">
-        <v>39.50167676100224</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>42.99246185206352</v>
       </c>
       <c r="I8">
-        <v>25.48297799226638</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.892394311129037</v>
+        <v>5.979240575094568</v>
       </c>
       <c r="K8">
-        <v>18.27426989376659</v>
+        <v>18.62452748661544</v>
       </c>
       <c r="L8">
-        <v>12.41427708753595</v>
+        <v>6.580294132822528</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.2544495089322</v>
+      </c>
+      <c r="N8">
+        <v>16.98031590512237</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.53663918102438</v>
+        <v>25.98369143458916</v>
       </c>
       <c r="C9">
-        <v>18.44816767436667</v>
+        <v>13.77699600764439</v>
       </c>
       <c r="D9">
-        <v>3.354927339358628</v>
+        <v>2.356063124943447</v>
       </c>
       <c r="E9">
-        <v>10.26774150694841</v>
+        <v>5.811405619568028</v>
       </c>
       <c r="F9">
-        <v>44.47241937018649</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>45.61814942252764</v>
       </c>
       <c r="I9">
-        <v>27.8279893268595</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.64234018625412</v>
+        <v>5.889914952779436</v>
       </c>
       <c r="K9">
-        <v>21.36768615631993</v>
+        <v>20.98784686369316</v>
       </c>
       <c r="L9">
-        <v>14.56020132694798</v>
+        <v>6.712016919450658</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.32988781889134</v>
+      </c>
+      <c r="N9">
+        <v>16.60037344115618</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.86787641671817</v>
+        <v>28.05302541658432</v>
       </c>
       <c r="C10">
-        <v>20.31452715558224</v>
+        <v>15.14939934710286</v>
       </c>
       <c r="D10">
-        <v>3.258703762618072</v>
+        <v>2.565125998306508</v>
       </c>
       <c r="E10">
-        <v>11.31254143562087</v>
+        <v>5.842441150394137</v>
       </c>
       <c r="F10">
-        <v>48.07768530530625</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>47.66777499312341</v>
       </c>
       <c r="I10">
-        <v>29.60261939847644</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.205646385228995</v>
+        <v>5.826298408269804</v>
       </c>
       <c r="K10">
-        <v>23.46601257608785</v>
+        <v>22.65850895237497</v>
       </c>
       <c r="L10">
-        <v>16.02272908745259</v>
+        <v>6.824843422063872</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.13331339806752</v>
+      </c>
+      <c r="N10">
+        <v>16.3478350136443</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.88961444490024</v>
+        <v>28.97562149269554</v>
       </c>
       <c r="C11">
-        <v>21.13556209178092</v>
+        <v>15.75019169739034</v>
       </c>
       <c r="D11">
-        <v>3.214988814896953</v>
+        <v>2.65951941544682</v>
       </c>
       <c r="E11">
-        <v>11.77240196905453</v>
+        <v>5.857665641764516</v>
       </c>
       <c r="F11">
-        <v>49.7102424912694</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>48.62776920049407</v>
       </c>
       <c r="I11">
-        <v>30.4230291033207</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.465045855840048</v>
+        <v>5.797674024957246</v>
       </c>
       <c r="K11">
-        <v>24.38657124633144</v>
+        <v>23.40388107136475</v>
       </c>
       <c r="L11">
-        <v>16.66622439039517</v>
+        <v>6.879886890937915</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.50128007782316</v>
+      </c>
+      <c r="N11">
+        <v>16.23941784514124</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.27134149173757</v>
+        <v>29.32233075779082</v>
       </c>
       <c r="C12">
-        <v>21.44280657056439</v>
+        <v>15.97450032294461</v>
       </c>
       <c r="D12">
-        <v>3.198442575803192</v>
+        <v>2.695212805255051</v>
       </c>
       <c r="E12">
-        <v>11.94452182536295</v>
+        <v>5.863614455923726</v>
       </c>
       <c r="F12">
-        <v>50.32780168247812</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>48.99543948621313</v>
       </c>
       <c r="I12">
-        <v>30.73583865004689</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.563798759869082</v>
+        <v>5.786868825436946</v>
       </c>
       <c r="K12">
-        <v>24.73064692902603</v>
+        <v>23.68407005939165</v>
       </c>
       <c r="L12">
-        <v>16.90704489566892</v>
+        <v>6.901286403866703</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.6409691338359</v>
+      </c>
+      <c r="N12">
+        <v>16.19936388967523</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.18935345969196</v>
+        <v>29.24777759054162</v>
       </c>
       <c r="C13">
-        <v>21.37679261505901</v>
+        <v>15.92633053618316</v>
       </c>
       <c r="D13">
-        <v>3.202005736338107</v>
+        <v>2.6875269776866</v>
       </c>
       <c r="E13">
-        <v>11.90753907549475</v>
+        <v>5.862324675154643</v>
       </c>
       <c r="F13">
-        <v>50.19481966025954</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>48.91606752501792</v>
       </c>
       <c r="I13">
-        <v>30.66836939124603</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.542505782812889</v>
+        <v>5.789194585650029</v>
       </c>
       <c r="K13">
-        <v>24.6567387038409</v>
+        <v>23.62381714398662</v>
       </c>
       <c r="L13">
-        <v>16.85530207507601</v>
+        <v>6.896652553854367</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.61086899801668</v>
+      </c>
+      <c r="N13">
+        <v>16.20794441787663</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.92112080559025</v>
+        <v>29.00419827922865</v>
       </c>
       <c r="C14">
-        <v>21.16091045466434</v>
+        <v>15.76870867345191</v>
       </c>
       <c r="D14">
-        <v>3.213627383619465</v>
+        <v>2.66245663962486</v>
       </c>
       <c r="E14">
-        <v>11.78660160460385</v>
+        <v>5.858151220440348</v>
       </c>
       <c r="F14">
-        <v>49.76105949746995</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>48.65793345428059</v>
       </c>
       <c r="I14">
-        <v>30.44871950044119</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9.473159296831946</v>
+        <v>5.796784456465851</v>
       </c>
       <c r="K14">
-        <v>24.41496686151586</v>
+        <v>23.42697342225777</v>
       </c>
       <c r="L14">
-        <v>16.686092354219</v>
+        <v>6.881636173319214</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.51276536965873</v>
+      </c>
+      <c r="N14">
+        <v>16.23610205991118</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.75615807893729</v>
+        <v>28.85465508252855</v>
       </c>
       <c r="C15">
-        <v>21.02821086212979</v>
+        <v>15.67175002919866</v>
       </c>
       <c r="D15">
-        <v>3.220747015219569</v>
+        <v>2.64709530015484</v>
       </c>
       <c r="E15">
-        <v>11.7122673109852</v>
+        <v>5.855619563437909</v>
       </c>
       <c r="F15">
-        <v>49.49529930626192</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>48.5003643454725</v>
       </c>
       <c r="I15">
-        <v>30.31446513547774</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>9.430753448891272</v>
+        <v>5.801437579898634</v>
       </c>
       <c r="K15">
-        <v>24.26629775650648</v>
+        <v>23.30613372082923</v>
       </c>
       <c r="L15">
-        <v>16.58208341091534</v>
+        <v>6.872511252809923</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.45271953898704</v>
+      </c>
+      <c r="N15">
+        <v>16.25348216408239</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.80035572660441</v>
+        <v>27.99235602667378</v>
       </c>
       <c r="C16">
-        <v>20.26033715763786</v>
+        <v>15.10967809393125</v>
       </c>
       <c r="D16">
-        <v>3.261561670528707</v>
+        <v>2.558947023727576</v>
       </c>
       <c r="E16">
-        <v>11.28219444760541</v>
+        <v>5.841470473066238</v>
       </c>
       <c r="F16">
-        <v>47.97087504656506</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>47.60560593426747</v>
       </c>
       <c r="I16">
-        <v>29.54928710758211</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>9.188762771184091</v>
+        <v>5.828174500110066</v>
       </c>
       <c r="K16">
-        <v>23.40519831256795</v>
+        <v>22.60950468711376</v>
       </c>
       <c r="L16">
-        <v>15.98025920758614</v>
+        <v>6.821322763428197</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.10931456560385</v>
+      </c>
+      <c r="N16">
+        <v>16.35505626230741</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.2043372480137</v>
+        <v>27.45856678797565</v>
       </c>
       <c r="C17">
-        <v>19.78234534680085</v>
+        <v>14.75896523323588</v>
       </c>
       <c r="D17">
-        <v>3.286613487077225</v>
+        <v>2.504722507442829</v>
       </c>
       <c r="E17">
-        <v>11.01454101951576</v>
+        <v>5.833090180293415</v>
       </c>
       <c r="F17">
-        <v>47.0340145513419</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>47.06387514339428</v>
       </c>
       <c r="I17">
-        <v>29.08338603495149</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>9.041156988838905</v>
+        <v>5.844649930748377</v>
       </c>
       <c r="K17">
-        <v>22.86848376975967</v>
+        <v>22.17840840200022</v>
       </c>
       <c r="L17">
-        <v>15.60565916762828</v>
+        <v>6.790886793137255</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.89926896446053</v>
+      </c>
+      <c r="N17">
+        <v>16.41907158225454</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.85784932459166</v>
+        <v>27.14977358862665</v>
       </c>
       <c r="C18">
-        <v>19.5047590575828</v>
+        <v>14.55501840462436</v>
       </c>
       <c r="D18">
-        <v>3.301027936422062</v>
+        <v>2.473463619250441</v>
       </c>
       <c r="E18">
-        <v>10.85912866593837</v>
+        <v>5.828372520719512</v>
       </c>
       <c r="F18">
-        <v>46.49441560973276</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>46.75487111195564</v>
       </c>
       <c r="I18">
-        <v>28.81662689968431</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.956548434468109</v>
+        <v>5.854156551937971</v>
       </c>
       <c r="K18">
-        <v>22.55655670275301</v>
+        <v>21.92907154885806</v>
       </c>
       <c r="L18">
-        <v>15.388126858804</v>
+        <v>6.773729400198842</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.77868927215065</v>
+      </c>
+      <c r="N18">
+        <v>16.4564949431645</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.73989245135121</v>
+        <v>27.04491711328628</v>
       </c>
       <c r="C19">
-        <v>19.41030643189115</v>
+        <v>14.48557791964183</v>
       </c>
       <c r="D19">
-        <v>3.305909402642355</v>
+        <v>2.462866396631838</v>
       </c>
       <c r="E19">
-        <v>10.80625145595264</v>
+        <v>5.826792109259969</v>
       </c>
       <c r="F19">
-        <v>46.31157935768041</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>46.65068742282596</v>
       </c>
       <c r="I19">
-        <v>28.72650932451896</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.927949627084224</v>
+        <v>5.857380868070224</v>
       </c>
       <c r="K19">
-        <v>22.45037963134327</v>
+        <v>21.84441289246415</v>
       </c>
       <c r="L19">
-        <v>15.31411033543118</v>
+        <v>6.767979468328929</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.73790374629408</v>
+      </c>
+      <c r="N19">
+        <v>16.46926749791814</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.26816200819799</v>
+        <v>27.51557286092094</v>
       </c>
       <c r="C20">
-        <v>19.83350104193314</v>
+        <v>14.79652834048354</v>
       </c>
       <c r="D20">
-        <v>3.28394614396251</v>
+        <v>2.510501742660207</v>
       </c>
       <c r="E20">
-        <v>11.04318347328706</v>
+        <v>5.833971505668683</v>
       </c>
       <c r="F20">
-        <v>47.1338192109824</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>47.12127470708079</v>
       </c>
       <c r="I20">
-        <v>29.13285474315683</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9.056839403551297</v>
+        <v>5.84289302427368</v>
       </c>
       <c r="K20">
-        <v>22.92594902825544</v>
+        <v>22.22444225417116</v>
       </c>
       <c r="L20">
-        <v>15.64574854990331</v>
+        <v>6.794090533805919</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.92160470809274</v>
+      </c>
+      <c r="N20">
+        <v>16.41219410648546</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.00004452411344</v>
+        <v>29.07581491899237</v>
       </c>
       <c r="C21">
-        <v>21.22441657706613</v>
+        <v>15.81509126613989</v>
       </c>
       <c r="D21">
-        <v>3.210213604051376</v>
+        <v>2.669821351677268</v>
       </c>
       <c r="E21">
-        <v>11.82217695117434</v>
+        <v>5.859371867802053</v>
       </c>
       <c r="F21">
-        <v>49.88847885078951</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>48.73363961843496</v>
       </c>
       <c r="I21">
-        <v>30.51317549015833</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>9.493513098273178</v>
+        <v>5.794554292779157</v>
       </c>
       <c r="K21">
-        <v>24.48610060277366</v>
+        <v>23.48484674706744</v>
       </c>
       <c r="L21">
-        <v>16.73586846387909</v>
+        <v>6.886031583970108</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.54157128782257</v>
+      </c>
+      <c r="N21">
+        <v>16.22780367013881</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.10194211404396</v>
+        <v>30.08009705185481</v>
       </c>
       <c r="C22">
-        <v>22.11231300725709</v>
+        <v>16.46223987239286</v>
       </c>
       <c r="D22">
-        <v>3.16207225700545</v>
+        <v>2.773676595486533</v>
       </c>
       <c r="E22">
-        <v>12.31963779227319</v>
+        <v>5.877056957802465</v>
       </c>
       <c r="F22">
-        <v>51.68532451965901</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>49.81167910329463</v>
       </c>
       <c r="I22">
-        <v>31.42794641508566</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.782015040945682</v>
+        <v>5.763155607658803</v>
       </c>
       <c r="K22">
-        <v>25.47961395022328</v>
+        <v>24.34943637444621</v>
       </c>
       <c r="L22">
-        <v>17.43183142707137</v>
+        <v>6.949371575089016</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.94879798777825</v>
+      </c>
+      <c r="N22">
+        <v>16.11317264869106</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51643887825499</v>
+        <v>29.54547402393451</v>
       </c>
       <c r="C23">
-        <v>21.64022769859826</v>
+        <v>16.11847443134858</v>
       </c>
       <c r="D23">
-        <v>3.187761129255774</v>
+        <v>2.718252659253689</v>
       </c>
       <c r="E23">
-        <v>12.05512678004585</v>
+        <v>5.867509765029833</v>
       </c>
       <c r="F23">
-        <v>50.7264438798324</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>49.23401529269978</v>
       </c>
       <c r="I23">
-        <v>30.93844959014391</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.627719612588502</v>
+        <v>5.779899966485745</v>
       </c>
       <c r="K23">
-        <v>24.95161345084679</v>
+        <v>23.86442351580095</v>
       </c>
       <c r="L23">
-        <v>17.06178864417603</v>
+        <v>6.915260633626047</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.73126300582469</v>
+      </c>
+      <c r="N23">
+        <v>16.17378843047562</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.23931878915186</v>
+        <v>27.48980636872329</v>
       </c>
       <c r="C24">
-        <v>19.81038224524847</v>
+        <v>14.77955329127975</v>
       </c>
       <c r="D24">
-        <v>3.285152012869914</v>
+        <v>2.507889217312746</v>
       </c>
       <c r="E24">
-        <v>11.0302390151735</v>
+        <v>5.833572747912552</v>
       </c>
       <c r="F24">
-        <v>47.08870062308978</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>47.09531676322254</v>
       </c>
       <c r="I24">
-        <v>29.11048655157823</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>9.049748603942417</v>
+        <v>5.843687212859507</v>
       </c>
       <c r="K24">
-        <v>22.89997948597727</v>
+        <v>22.20363500460137</v>
       </c>
       <c r="L24">
-        <v>15.6276309190289</v>
+        <v>6.792641063151988</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.91150616193464</v>
+      </c>
+      <c r="N24">
+        <v>16.41530148708437</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64145509466994</v>
+        <v>25.20512496958874</v>
       </c>
       <c r="C25">
-        <v>17.73391758152592</v>
+        <v>13.24962621440283</v>
       </c>
       <c r="D25">
-        <v>3.390433267749329</v>
+        <v>2.278150693441466</v>
       </c>
       <c r="E25">
-        <v>9.883059199343293</v>
+        <v>5.800812535557877</v>
       </c>
       <c r="F25">
-        <v>43.13626050815678</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>44.88699838548516</v>
       </c>
       <c r="I25">
-        <v>27.18490733195835</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.437374247772514</v>
+        <v>5.913689181286111</v>
       </c>
       <c r="K25">
-        <v>20.56264612135329</v>
+        <v>20.3597196915087</v>
       </c>
       <c r="L25">
-        <v>14.00060460374244</v>
+        <v>6.673636424119953</v>
       </c>
       <c r="M25">
+        <v>15.03640920395804</v>
+      </c>
+      <c r="N25">
+        <v>16.69869065723481</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.46675266090279</v>
+        <v>23.95464279071373</v>
       </c>
       <c r="C2">
-        <v>12.04340689748867</v>
+        <v>16.43792727178354</v>
       </c>
       <c r="D2">
-        <v>2.148829696048624</v>
+        <v>2.659822446867131</v>
       </c>
       <c r="E2">
-        <v>5.779242769973355</v>
+        <v>6.024881183096972</v>
       </c>
       <c r="F2">
-        <v>43.34162411650645</v>
+        <v>38.11684799997884</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.62164796035993</v>
       </c>
       <c r="J2">
-        <v>5.966626593659282</v>
+        <v>5.676656160064968</v>
       </c>
       <c r="K2">
-        <v>18.95821143371051</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.596715084602963</v>
+        <v>7.291691832136983</v>
       </c>
       <c r="M2">
-        <v>14.40124822422758</v>
+        <v>14.78795821981292</v>
       </c>
       <c r="N2">
-        <v>16.92495179041748</v>
+        <v>14.35916961134692</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.25659791014998</v>
+        <v>22.55955353372233</v>
       </c>
       <c r="C3">
-        <v>11.17358395173881</v>
+        <v>15.26467840490465</v>
       </c>
       <c r="D3">
-        <v>2.150238825845714</v>
+        <v>2.53957537807206</v>
       </c>
       <c r="E3">
-        <v>5.765903788114942</v>
+        <v>5.96530164509374</v>
       </c>
       <c r="F3">
-        <v>42.34349095382288</v>
+        <v>37.20057288397477</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.36772141105525</v>
       </c>
       <c r="J3">
-        <v>6.003532618309991</v>
+        <v>5.696788931021976</v>
       </c>
       <c r="K3">
-        <v>17.98344130998227</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.550943732868831</v>
+        <v>7.208091310575964</v>
       </c>
       <c r="M3">
-        <v>13.97772384522349</v>
+        <v>14.24973997230874</v>
       </c>
       <c r="N3">
-        <v>17.08846270063413</v>
+        <v>14.62042850390138</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49943072774866</v>
+        <v>21.67529943803875</v>
       </c>
       <c r="C4">
-        <v>10.6129192544217</v>
+        <v>14.52249310689914</v>
       </c>
       <c r="D4">
-        <v>2.153667634301791</v>
+        <v>2.464634351162365</v>
       </c>
       <c r="E4">
-        <v>5.758255885989165</v>
+        <v>5.92886227920748</v>
       </c>
       <c r="F4">
-        <v>41.7547009319253</v>
+        <v>36.66382507004941</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.23260055394617</v>
       </c>
       <c r="J4">
-        <v>6.026748216654102</v>
+        <v>5.709569838222849</v>
       </c>
       <c r="K4">
-        <v>17.37396916437308</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.52587729896954</v>
+        <v>7.160019713221938</v>
       </c>
       <c r="M4">
-        <v>13.72162937992972</v>
+        <v>13.91884226263554</v>
       </c>
       <c r="N4">
-        <v>17.19365902360692</v>
+        <v>14.7839392286811</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.18765869209065</v>
+        <v>21.30829459471742</v>
       </c>
       <c r="C5">
-        <v>10.37765489115547</v>
+        <v>14.22340464287847</v>
       </c>
       <c r="D5">
-        <v>2.155650019147334</v>
+        <v>2.433798749596432</v>
       </c>
       <c r="E5">
-        <v>5.755263846906045</v>
+        <v>5.914031644711917</v>
       </c>
       <c r="F5">
-        <v>41.52080004096109</v>
+        <v>36.45157651865568</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.18256091514923</v>
       </c>
       <c r="J5">
-        <v>6.036354778690126</v>
+        <v>5.714885199494195</v>
       </c>
       <c r="K5">
-        <v>17.12311597753995</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.516412072487375</v>
+        <v>7.141241701438101</v>
       </c>
       <c r="M5">
-        <v>13.61835407128992</v>
+        <v>13.78404920434906</v>
       </c>
       <c r="N5">
-        <v>17.23770613815541</v>
+        <v>14.851384166969</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13570582072773</v>
+        <v>21.2469614133589</v>
       </c>
       <c r="C6">
-        <v>10.33817654806131</v>
+        <v>14.17329469668288</v>
       </c>
       <c r="D6">
-        <v>2.156012872639699</v>
+        <v>2.42866016784305</v>
       </c>
       <c r="E6">
-        <v>5.754774218249419</v>
+        <v>5.911569685107803</v>
       </c>
       <c r="F6">
-        <v>41.48232502525931</v>
+        <v>36.41672350824305</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.17454922122401</v>
       </c>
       <c r="J6">
-        <v>6.037958939811581</v>
+        <v>5.7157743218526</v>
       </c>
       <c r="K6">
-        <v>17.08132067348114</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.514885232972779</v>
+        <v>7.138172397855588</v>
       </c>
       <c r="M6">
-        <v>13.60127363844816</v>
+        <v>13.76167493848275</v>
       </c>
       <c r="N6">
-        <v>17.24509056913079</v>
+        <v>14.86263343068889</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49523860726614</v>
+        <v>21.67037641753747</v>
       </c>
       <c r="C7">
-        <v>10.60977401491227</v>
+        <v>14.51848947198869</v>
       </c>
       <c r="D7">
-        <v>2.153692075902703</v>
+        <v>2.464219712691894</v>
       </c>
       <c r="E7">
-        <v>5.758215044860797</v>
+        <v>5.928662213967436</v>
       </c>
       <c r="F7">
-        <v>41.75152204575303</v>
+        <v>36.66093640281656</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.23190563556929</v>
       </c>
       <c r="J7">
-        <v>6.02687717470453</v>
+        <v>5.709641087567837</v>
       </c>
       <c r="K7">
-        <v>17.370595749127</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.525746631522332</v>
+        <v>7.159763191399603</v>
       </c>
       <c r="M7">
-        <v>13.72023205268866</v>
+        <v>13.91702396967855</v>
       </c>
       <c r="N7">
-        <v>17.19424832013486</v>
+        <v>14.78484547841197</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.05260002870466</v>
+        <v>23.47950737803126</v>
       </c>
       <c r="C8">
-        <v>11.7489460827829</v>
+        <v>16.0406104692641</v>
       </c>
       <c r="D8">
-        <v>2.148746353584034</v>
+        <v>2.618579495808245</v>
       </c>
       <c r="E8">
-        <v>5.774523465572406</v>
+        <v>6.004297688768645</v>
       </c>
       <c r="F8">
-        <v>42.99246185206352</v>
+        <v>37.79554075211617</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.52965626004841</v>
       </c>
       <c r="J8">
-        <v>5.979240575094568</v>
+        <v>5.683511894294662</v>
       </c>
       <c r="K8">
-        <v>18.62452748661544</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.580294132822528</v>
+        <v>7.262185087230898</v>
       </c>
       <c r="M8">
-        <v>14.2544495089322</v>
+        <v>14.60255898014488</v>
       </c>
       <c r="N8">
-        <v>16.98031590512237</v>
+        <v>14.44862999794656</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.98369143458916</v>
+        <v>26.79900270899438</v>
       </c>
       <c r="C9">
-        <v>13.77699600764439</v>
+        <v>18.77874061186025</v>
       </c>
       <c r="D9">
-        <v>2.356063124943447</v>
+        <v>2.913506731119652</v>
       </c>
       <c r="E9">
-        <v>5.811405619568028</v>
+        <v>6.154620648517784</v>
       </c>
       <c r="F9">
-        <v>45.61814942252764</v>
+        <v>40.22664747530635</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.28763327549327</v>
       </c>
       <c r="J9">
-        <v>5.889914952779436</v>
+        <v>5.635524112538009</v>
       </c>
       <c r="K9">
-        <v>20.98784686369316</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.712016919450658</v>
+        <v>7.489268664652955</v>
       </c>
       <c r="M9">
-        <v>15.32988781889134</v>
+        <v>15.93757456254463</v>
       </c>
       <c r="N9">
-        <v>16.60037344115618</v>
+        <v>13.81226911459549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.05302541658432</v>
+        <v>29.09233033508395</v>
       </c>
       <c r="C10">
-        <v>15.14939934710286</v>
+        <v>20.63239450651852</v>
       </c>
       <c r="D10">
-        <v>2.565125998306508</v>
+        <v>3.127248229276649</v>
       </c>
       <c r="E10">
-        <v>5.842441150394137</v>
+        <v>6.267661904935657</v>
       </c>
       <c r="F10">
-        <v>47.66777499312341</v>
+        <v>42.1410934562269</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>25.96329343510079</v>
       </c>
       <c r="J10">
-        <v>5.826298408269804</v>
+        <v>5.602140167243717</v>
       </c>
       <c r="K10">
-        <v>22.65850895237497</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.824843422063872</v>
+        <v>7.672678979683142</v>
       </c>
       <c r="M10">
-        <v>16.13331339806752</v>
+        <v>16.9065250672219</v>
       </c>
       <c r="N10">
-        <v>16.3478350136443</v>
+        <v>13.35640435684912</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.97562149269554</v>
+        <v>30.10877001469737</v>
       </c>
       <c r="C11">
-        <v>15.75019169739034</v>
+        <v>21.44363296617596</v>
       </c>
       <c r="D11">
-        <v>2.65951941544682</v>
+        <v>3.224356824858039</v>
       </c>
       <c r="E11">
-        <v>5.857665641764516</v>
+        <v>6.320012781188833</v>
       </c>
       <c r="F11">
-        <v>48.62776920049407</v>
+        <v>43.04099705447258</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26.29928488702778</v>
       </c>
       <c r="J11">
-        <v>5.797674024957246</v>
+        <v>5.58733466075637</v>
       </c>
       <c r="K11">
-        <v>23.40388107136475</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.879886890937915</v>
+        <v>7.759870265846966</v>
       </c>
       <c r="M11">
-        <v>16.50128007782316</v>
+        <v>17.34395335220681</v>
       </c>
       <c r="N11">
-        <v>16.23941784514124</v>
+        <v>13.15103106491758</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.32233075779082</v>
+        <v>30.51594146587632</v>
       </c>
       <c r="C12">
-        <v>15.97450032294461</v>
+        <v>21.74644616666364</v>
       </c>
       <c r="D12">
-        <v>2.695212805255051</v>
+        <v>3.26116322318886</v>
       </c>
       <c r="E12">
-        <v>5.863614455923726</v>
+        <v>6.340005272350115</v>
       </c>
       <c r="F12">
-        <v>48.99543948621313</v>
+        <v>43.38608246412589</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>26.43087955758</v>
       </c>
       <c r="J12">
-        <v>5.786868825436946</v>
+        <v>5.581780900813173</v>
       </c>
       <c r="K12">
-        <v>23.68407005939165</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.901286403866703</v>
+        <v>7.793443225219919</v>
       </c>
       <c r="M12">
-        <v>16.6409691338359</v>
+        <v>17.50908397732402</v>
       </c>
       <c r="N12">
-        <v>16.19936388967523</v>
+        <v>13.07350622112973</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.24777759054162</v>
+        <v>30.42851105127414</v>
       </c>
       <c r="C13">
-        <v>15.92633053618316</v>
+        <v>21.68142121296365</v>
       </c>
       <c r="D13">
-        <v>2.6875269776866</v>
+        <v>3.25323390988499</v>
       </c>
       <c r="E13">
-        <v>5.862324675154643</v>
+        <v>6.335691433636277</v>
       </c>
       <c r="F13">
-        <v>48.91606752501792</v>
+        <v>43.31156757306834</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>26.40234019590527</v>
       </c>
       <c r="J13">
-        <v>5.789194585650029</v>
+        <v>5.582974688654454</v>
       </c>
       <c r="K13">
-        <v>23.62381714398662</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.896652553854367</v>
+        <v>7.786187700173848</v>
       </c>
       <c r="M13">
-        <v>16.61086899801668</v>
+        <v>17.47354319831068</v>
       </c>
       <c r="N13">
-        <v>16.20794441787663</v>
+        <v>13.09019233768283</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.00419827922865</v>
+        <v>30.14238630087728</v>
       </c>
       <c r="C14">
-        <v>15.76870867345191</v>
+        <v>21.46863213743608</v>
       </c>
       <c r="D14">
-        <v>2.66245663962486</v>
+        <v>3.227383914421472</v>
       </c>
       <c r="E14">
-        <v>5.858151220440348</v>
+        <v>6.321653983386795</v>
       </c>
       <c r="F14">
-        <v>48.65793345428059</v>
+        <v>43.06930003363229</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>26.31002237213151</v>
       </c>
       <c r="J14">
-        <v>5.796784456465851</v>
+        <v>5.586876703952506</v>
       </c>
       <c r="K14">
-        <v>23.42697342225777</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.881636173319214</v>
+        <v>7.762621100182184</v>
       </c>
       <c r="M14">
-        <v>16.51276536965873</v>
+        <v>17.35754912791548</v>
       </c>
       <c r="N14">
-        <v>16.23610205991118</v>
+        <v>13.14464837103614</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.85465508252855</v>
+        <v>29.971724275494</v>
       </c>
       <c r="C15">
-        <v>15.67175002919866</v>
+        <v>21.33772849796171</v>
       </c>
       <c r="D15">
-        <v>2.64709530015484</v>
+        <v>3.211556071966226</v>
       </c>
       <c r="E15">
-        <v>5.855619563437909</v>
+        <v>6.313078686365905</v>
       </c>
       <c r="F15">
-        <v>48.5003643454725</v>
+        <v>42.92147073034396</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>26.25405067093229</v>
       </c>
       <c r="J15">
-        <v>5.801437579898634</v>
+        <v>5.589273611169607</v>
       </c>
       <c r="K15">
-        <v>23.30613372082923</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.872511252809923</v>
+        <v>7.748258733598812</v>
       </c>
       <c r="M15">
-        <v>16.45271953898704</v>
+        <v>17.28643202574262</v>
       </c>
       <c r="N15">
-        <v>16.25348216408239</v>
+        <v>13.17803498358783</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.99235602667378</v>
+        <v>29.02558356135537</v>
       </c>
       <c r="C16">
-        <v>15.10967809393125</v>
+        <v>20.57875212110751</v>
       </c>
       <c r="D16">
-        <v>2.558947023727576</v>
+        <v>3.120903659098498</v>
       </c>
       <c r="E16">
-        <v>5.841470473066238</v>
+        <v>6.264262196681704</v>
       </c>
       <c r="F16">
-        <v>47.60560593426747</v>
+        <v>42.08287714921998</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>25.94193228104306</v>
       </c>
       <c r="J16">
-        <v>5.828174500110066</v>
+        <v>5.603115237314907</v>
       </c>
       <c r="K16">
-        <v>22.60950468711376</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.821322763428197</v>
+        <v>7.667057652516257</v>
       </c>
       <c r="M16">
-        <v>16.10931456560385</v>
+        <v>16.87786725636004</v>
       </c>
       <c r="N16">
-        <v>16.35505626230741</v>
+        <v>13.36986265909713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.45856678797565</v>
+        <v>28.43710937107367</v>
       </c>
       <c r="C17">
-        <v>14.75896523323588</v>
+        <v>20.10509432062607</v>
       </c>
       <c r="D17">
-        <v>2.504722507442829</v>
+        <v>3.065293573193388</v>
       </c>
       <c r="E17">
-        <v>5.833090180293415</v>
+        <v>6.234575838449776</v>
       </c>
       <c r="F17">
-        <v>47.06387514339428</v>
+        <v>41.57594071501524</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.75795992103542</v>
       </c>
       <c r="J17">
-        <v>5.844649930748377</v>
+        <v>5.611702794301824</v>
       </c>
       <c r="K17">
-        <v>22.17840840200022</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.790886793137255</v>
+        <v>7.618215508613297</v>
       </c>
       <c r="M17">
-        <v>15.89926896446053</v>
+        <v>16.6263356092911</v>
       </c>
       <c r="N17">
-        <v>16.41907158225454</v>
+        <v>13.48802548431607</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.14977358862665</v>
+        <v>28.09565703391946</v>
       </c>
       <c r="C18">
-        <v>14.55501840462436</v>
+        <v>19.82963254580912</v>
       </c>
       <c r="D18">
-        <v>2.473463619250441</v>
+        <v>3.033292957898961</v>
       </c>
       <c r="E18">
-        <v>5.828372520719512</v>
+        <v>6.217586001363539</v>
       </c>
       <c r="F18">
-        <v>46.75487111195564</v>
+        <v>41.28708386162365</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.65482323607513</v>
       </c>
       <c r="J18">
-        <v>5.854156551937971</v>
+        <v>5.616678118611105</v>
       </c>
       <c r="K18">
-        <v>21.92907154885806</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.773729400198842</v>
+        <v>7.590475340469228</v>
       </c>
       <c r="M18">
-        <v>15.77868927215065</v>
+        <v>16.48134588227251</v>
       </c>
       <c r="N18">
-        <v>16.4564949431645</v>
+        <v>13.55618061393561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.04491711328628</v>
+        <v>27.97953448570402</v>
       </c>
       <c r="C19">
-        <v>14.48557791964183</v>
+        <v>19.73584001129289</v>
       </c>
       <c r="D19">
-        <v>2.462866396631838</v>
+        <v>3.022454068356901</v>
       </c>
       <c r="E19">
-        <v>5.826792109259969</v>
+        <v>6.211847142908017</v>
       </c>
       <c r="F19">
-        <v>46.65068742282596</v>
+        <v>41.18974559390705</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.62035590730788</v>
       </c>
       <c r="J19">
-        <v>5.857380868070224</v>
+        <v>5.618368919646534</v>
       </c>
       <c r="K19">
-        <v>21.84441289246415</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.767979468328929</v>
+        <v>7.581143134282621</v>
       </c>
       <c r="M19">
-        <v>15.73790374629408</v>
+        <v>16.43220212974058</v>
       </c>
       <c r="N19">
-        <v>16.46926749791814</v>
+        <v>13.57929085637056</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.51557286092094</v>
+        <v>28.50006127793704</v>
       </c>
       <c r="C20">
-        <v>14.79652834048354</v>
+        <v>20.15582773951111</v>
       </c>
       <c r="D20">
-        <v>2.510501742660207</v>
+        <v>3.071214586695476</v>
       </c>
       <c r="E20">
-        <v>5.833971505668683</v>
+        <v>6.237726970408949</v>
       </c>
       <c r="F20">
-        <v>47.12127470708079</v>
+        <v>41.62962265907964</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.77726506900186</v>
       </c>
       <c r="J20">
-        <v>5.84289302427368</v>
+        <v>5.610784923973558</v>
       </c>
       <c r="K20">
-        <v>22.22444225417116</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.794090533805919</v>
+        <v>7.623378251779246</v>
       </c>
       <c r="M20">
-        <v>15.92160470809274</v>
+        <v>16.65314454606619</v>
       </c>
       <c r="N20">
-        <v>16.41219410648546</v>
+        <v>13.47542738765181</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.07581491899237</v>
+        <v>30.22658788472131</v>
       </c>
       <c r="C21">
-        <v>15.81509126613989</v>
+        <v>21.53125059678688</v>
       </c>
       <c r="D21">
-        <v>2.669821351677268</v>
+        <v>3.234975325184764</v>
       </c>
       <c r="E21">
-        <v>5.859371867802053</v>
+        <v>6.325772250321525</v>
       </c>
       <c r="F21">
-        <v>48.73363961843496</v>
+        <v>43.14034148288541</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>26.33701793053278</v>
       </c>
       <c r="J21">
-        <v>5.794554292779157</v>
+        <v>5.58572917194607</v>
       </c>
       <c r="K21">
-        <v>23.48484674706744</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.886031583970108</v>
+        <v>7.769527966323557</v>
       </c>
       <c r="M21">
-        <v>16.54157128782257</v>
+        <v>17.3916334568012</v>
       </c>
       <c r="N21">
-        <v>16.22780367013881</v>
+        <v>13.1286469877706</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08009705185481</v>
+        <v>31.40088214572566</v>
       </c>
       <c r="C22">
-        <v>16.46223987239286</v>
+        <v>22.40473000456854</v>
       </c>
       <c r="D22">
-        <v>2.773676595486533</v>
+        <v>3.342227740141775</v>
       </c>
       <c r="E22">
-        <v>5.877056957802465</v>
+        <v>6.384316226514482</v>
       </c>
       <c r="F22">
-        <v>49.81167910329463</v>
+        <v>44.15292114251327</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.7284016249179</v>
       </c>
       <c r="J22">
-        <v>5.763155607658803</v>
+        <v>5.569660352955606</v>
       </c>
       <c r="K22">
-        <v>24.34943637444621</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.949371575089016</v>
+        <v>7.86829300830386</v>
       </c>
       <c r="M22">
-        <v>16.94879798777825</v>
+        <v>17.87128909259438</v>
       </c>
       <c r="N22">
-        <v>16.11317264869106</v>
+        <v>12.90341763696333</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.54547402393451</v>
+        <v>30.77722934054986</v>
       </c>
       <c r="C23">
-        <v>16.11847443134858</v>
+        <v>21.94078629508948</v>
       </c>
       <c r="D23">
-        <v>2.718252659253689</v>
+        <v>3.284945273124384</v>
       </c>
       <c r="E23">
-        <v>5.867509765029833</v>
+        <v>6.352965682400942</v>
       </c>
       <c r="F23">
-        <v>49.23401529269978</v>
+        <v>43.61011789311483</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26.51708880073539</v>
       </c>
       <c r="J23">
-        <v>5.779899966485745</v>
+        <v>5.578209219701731</v>
       </c>
       <c r="K23">
-        <v>23.86442351580095</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.915260633626047</v>
+        <v>7.815277069851083</v>
       </c>
       <c r="M23">
-        <v>16.73126300582469</v>
+        <v>17.61556429172331</v>
       </c>
       <c r="N23">
-        <v>16.17378843047562</v>
+        <v>13.02351161507385</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.48980636872329</v>
+        <v>28.47161047698124</v>
       </c>
       <c r="C24">
-        <v>14.77955329127975</v>
+        <v>20.13290098708441</v>
       </c>
       <c r="D24">
-        <v>2.507889217312746</v>
+        <v>3.068537792557168</v>
       </c>
       <c r="E24">
-        <v>5.833572747912552</v>
+        <v>6.236302105615992</v>
       </c>
       <c r="F24">
-        <v>47.09531676322254</v>
+        <v>41.60534500196395</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.76852903344071</v>
       </c>
       <c r="J24">
-        <v>5.843687212859507</v>
+        <v>5.61119977393862</v>
       </c>
       <c r="K24">
-        <v>22.20363500460137</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.792641063151988</v>
+        <v>7.621043118199404</v>
       </c>
       <c r="M24">
-        <v>15.91150616193464</v>
+        <v>16.64102540916244</v>
       </c>
       <c r="N24">
-        <v>16.41530148708437</v>
+        <v>13.48112229326648</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.20512496958874</v>
+        <v>25.92633725893521</v>
       </c>
       <c r="C25">
-        <v>13.24962621440283</v>
+        <v>18.06645344132719</v>
       </c>
       <c r="D25">
-        <v>2.278150693441466</v>
+        <v>2.834388247397509</v>
       </c>
       <c r="E25">
-        <v>5.800812535557877</v>
+        <v>6.11360792832958</v>
       </c>
       <c r="F25">
-        <v>44.88699838548516</v>
+        <v>39.54669459212528</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>25.06264838209624</v>
       </c>
       <c r="J25">
-        <v>5.913689181286111</v>
+        <v>5.648169052299994</v>
       </c>
       <c r="K25">
-        <v>20.3597196915087</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.673636424119953</v>
+        <v>7.424971678405584</v>
       </c>
       <c r="M25">
-        <v>15.03640920395804</v>
+        <v>15.57814713707375</v>
       </c>
       <c r="N25">
-        <v>16.69869065723481</v>
+        <v>13.98219950153939</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.95464279071373</v>
+        <v>24.79234167118218</v>
       </c>
       <c r="C2">
-        <v>16.43792727178354</v>
+        <v>12.19868981780221</v>
       </c>
       <c r="D2">
-        <v>2.659822446867131</v>
+        <v>4.116472192994418</v>
       </c>
       <c r="E2">
-        <v>6.024881183096972</v>
+        <v>9.434954983491286</v>
       </c>
       <c r="F2">
-        <v>38.11684799997884</v>
+        <v>51.05152519456227</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>24.62164796035993</v>
+        <v>35.71718101469777</v>
       </c>
       <c r="J2">
-        <v>5.676656160064968</v>
+        <v>9.319292756765989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.291691832136983</v>
+        <v>12.18213002633299</v>
       </c>
       <c r="M2">
-        <v>14.78795821981292</v>
+        <v>20.71384453939639</v>
       </c>
       <c r="N2">
-        <v>14.35916961134692</v>
+        <v>22.07692054025606</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55955353372233</v>
+        <v>24.52690093257683</v>
       </c>
       <c r="C3">
-        <v>15.26467840490465</v>
+        <v>11.84615480778835</v>
       </c>
       <c r="D3">
-        <v>2.53957537807206</v>
+        <v>4.0880550109427</v>
       </c>
       <c r="E3">
-        <v>5.96530164509374</v>
+        <v>9.422241046720384</v>
       </c>
       <c r="F3">
-        <v>37.20057288397477</v>
+        <v>51.03973662063841</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>24.36772141105525</v>
+        <v>35.77477713447134</v>
       </c>
       <c r="J3">
-        <v>5.696788931021976</v>
+        <v>9.325996496786265</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.208091310575964</v>
+        <v>12.19652173816144</v>
       </c>
       <c r="M3">
-        <v>14.24973997230874</v>
+        <v>20.67533557885137</v>
       </c>
       <c r="N3">
-        <v>14.62042850390138</v>
+        <v>22.14782543832302</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.67529943803875</v>
+        <v>24.36889176902148</v>
       </c>
       <c r="C4">
-        <v>14.52249310689914</v>
+        <v>11.62822034687833</v>
       </c>
       <c r="D4">
-        <v>2.464634351162365</v>
+        <v>4.070077268847864</v>
       </c>
       <c r="E4">
-        <v>5.92886227920748</v>
+        <v>9.414262293700286</v>
       </c>
       <c r="F4">
-        <v>36.66382507004941</v>
+        <v>51.04436539992822</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>24.23260055394617</v>
+        <v>35.81731954102652</v>
       </c>
       <c r="J4">
-        <v>5.709569838222849</v>
+        <v>9.330338538789535</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.160019713221938</v>
+        <v>12.20699692142302</v>
       </c>
       <c r="M4">
-        <v>13.91884226263554</v>
+        <v>20.65563771639017</v>
       </c>
       <c r="N4">
-        <v>14.7839392286811</v>
+        <v>22.19336377595828</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30829459471742</v>
+        <v>24.30582228839021</v>
       </c>
       <c r="C5">
-        <v>14.22340464287847</v>
+        <v>11.53919234269344</v>
       </c>
       <c r="D5">
-        <v>2.433798749596432</v>
+        <v>4.062618182155227</v>
       </c>
       <c r="E5">
-        <v>5.914031644711917</v>
+        <v>9.410967310821276</v>
       </c>
       <c r="F5">
-        <v>36.45157651865568</v>
+        <v>51.04923214866243</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>24.18256091514923</v>
+        <v>35.83645571585497</v>
       </c>
       <c r="J5">
-        <v>5.714885199494195</v>
+        <v>9.332164926048851</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.141241701438101</v>
+        <v>12.21167793815646</v>
       </c>
       <c r="M5">
-        <v>13.78404920434906</v>
+        <v>20.64860851326571</v>
       </c>
       <c r="N5">
-        <v>14.851384166969</v>
+        <v>22.21242588281552</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.2469614133589</v>
+        <v>24.29543140194033</v>
       </c>
       <c r="C6">
-        <v>14.17329469668288</v>
+        <v>11.5244007798242</v>
       </c>
       <c r="D6">
-        <v>2.42866016784305</v>
+        <v>4.061371576722818</v>
       </c>
       <c r="E6">
-        <v>5.911569685107803</v>
+        <v>9.410417542507577</v>
       </c>
       <c r="F6">
-        <v>36.41672350824305</v>
+        <v>51.05022014332408</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>24.17454922122401</v>
+        <v>35.83974180661274</v>
       </c>
       <c r="J6">
-        <v>5.7157743218526</v>
+        <v>9.33247164183706</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.138172397855588</v>
+        <v>12.21248012534245</v>
       </c>
       <c r="M6">
-        <v>13.76167493848275</v>
+        <v>20.64750172845293</v>
       </c>
       <c r="N6">
-        <v>14.86263343068889</v>
+        <v>22.21562166299561</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.67037641753747</v>
+        <v>24.36803575459877</v>
       </c>
       <c r="C7">
-        <v>14.51848947198869</v>
+        <v>11.62702035814402</v>
       </c>
       <c r="D7">
-        <v>2.464219712691894</v>
+        <v>4.06997721135326</v>
       </c>
       <c r="E7">
-        <v>5.928662213967436</v>
+        <v>9.414218033146744</v>
       </c>
       <c r="F7">
-        <v>36.66093640281656</v>
+        <v>51.04441897298004</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>24.23190563556929</v>
+        <v>35.81757033817435</v>
       </c>
       <c r="J7">
-        <v>5.709641087567837</v>
+        <v>9.330362939204674</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.159763191399603</v>
+        <v>12.20705838160088</v>
       </c>
       <c r="M7">
-        <v>13.91702396967855</v>
+        <v>20.65553887141188</v>
       </c>
       <c r="N7">
-        <v>14.78484547841197</v>
+        <v>22.19361880830841</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.47950737803126</v>
+        <v>24.69982855719711</v>
       </c>
       <c r="C8">
-        <v>16.0406104692641</v>
+        <v>12.07753171101105</v>
       </c>
       <c r="D8">
-        <v>2.618579495808245</v>
+        <v>4.106783915897962</v>
       </c>
       <c r="E8">
-        <v>6.004297688768645</v>
+        <v>9.430606842699856</v>
       </c>
       <c r="F8">
-        <v>37.79554075211617</v>
+        <v>51.04499585664034</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>24.52965626004841</v>
+        <v>35.73554730859874</v>
       </c>
       <c r="J8">
-        <v>5.683511894294662</v>
+        <v>9.321557413917327</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.262185087230898</v>
+        <v>12.18675235847364</v>
       </c>
       <c r="M8">
-        <v>14.60255898014488</v>
+        <v>20.69975094396984</v>
       </c>
       <c r="N8">
-        <v>14.44862999794656</v>
+        <v>22.10095374863339</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.79900270899438</v>
+        <v>25.38672562499629</v>
       </c>
       <c r="C9">
-        <v>18.77874061186025</v>
+        <v>12.94295895982826</v>
       </c>
       <c r="D9">
-        <v>2.913506731119652</v>
+        <v>4.174756801362238</v>
       </c>
       <c r="E9">
-        <v>6.154620648517784</v>
+        <v>9.461389392393007</v>
       </c>
       <c r="F9">
-        <v>40.22664747530635</v>
+        <v>51.14037594266006</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>25.28763327549327</v>
+        <v>35.63187536417949</v>
       </c>
       <c r="J9">
-        <v>5.635524112538009</v>
+        <v>9.306075025469001</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.489268664652955</v>
+        <v>12.15992201977785</v>
       </c>
       <c r="M9">
-        <v>15.93757456254463</v>
+        <v>20.81749914017265</v>
       </c>
       <c r="N9">
-        <v>13.81226911459549</v>
+        <v>21.93506412932303</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.09233033508395</v>
+        <v>25.90907205686634</v>
       </c>
       <c r="C10">
-        <v>20.63239450651852</v>
+        <v>13.56001811907462</v>
       </c>
       <c r="D10">
-        <v>3.127248229276649</v>
+        <v>4.222131006246007</v>
       </c>
       <c r="E10">
-        <v>6.267661904935657</v>
+        <v>9.483196077570259</v>
       </c>
       <c r="F10">
-        <v>42.1410934562269</v>
+        <v>51.267928029023</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>25.96329343510079</v>
+        <v>35.59084323718587</v>
       </c>
       <c r="J10">
-        <v>5.602140167243717</v>
+        <v>9.29577815138194</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.672678979683142</v>
+        <v>12.14811119368459</v>
       </c>
       <c r="M10">
-        <v>16.9065250672219</v>
+        <v>20.92253340934198</v>
       </c>
       <c r="N10">
-        <v>13.35640435684912</v>
+        <v>21.82274419021705</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.10877001469737</v>
+        <v>26.1495800097273</v>
       </c>
       <c r="C11">
-        <v>21.44363296617596</v>
+        <v>13.83521420947759</v>
       </c>
       <c r="D11">
-        <v>3.224356824858039</v>
+        <v>4.243125432202477</v>
       </c>
       <c r="E11">
-        <v>6.320012781188833</v>
+        <v>9.492944529659797</v>
       </c>
       <c r="F11">
-        <v>43.04099705447258</v>
+        <v>51.33840090837135</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>26.29928488702778</v>
+        <v>35.57985725244958</v>
       </c>
       <c r="J11">
-        <v>5.58733466075637</v>
+        <v>9.291325737853304</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.759870265846966</v>
+        <v>12.14444908991992</v>
       </c>
       <c r="M11">
-        <v>17.34395335220681</v>
+        <v>20.97423735152845</v>
       </c>
       <c r="N11">
-        <v>13.15103106491758</v>
+        <v>21.77370371715278</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.51594146587632</v>
+        <v>26.24098889567962</v>
       </c>
       <c r="C12">
-        <v>21.74644616666364</v>
+        <v>13.93852551327057</v>
       </c>
       <c r="D12">
-        <v>3.26116322318886</v>
+        <v>4.250995370109025</v>
       </c>
       <c r="E12">
-        <v>6.340005272350115</v>
+        <v>9.496611614127584</v>
       </c>
       <c r="F12">
-        <v>43.38608246412589</v>
+        <v>51.3668709037321</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>26.43087955758</v>
+        <v>35.57680480177344</v>
       </c>
       <c r="J12">
-        <v>5.581780900813173</v>
+        <v>9.289672876170894</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.793443225219919</v>
+        <v>12.14330781508883</v>
       </c>
       <c r="M12">
-        <v>17.50908397732402</v>
+        <v>20.99437066254046</v>
       </c>
       <c r="N12">
-        <v>13.07350622112973</v>
+        <v>21.75542742607267</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.42851105127414</v>
+        <v>26.22128880977843</v>
       </c>
       <c r="C13">
-        <v>21.68142121296365</v>
+        <v>13.91631718488012</v>
       </c>
       <c r="D13">
-        <v>3.25323390988499</v>
+        <v>4.249304007951938</v>
       </c>
       <c r="E13">
-        <v>6.335691433636277</v>
+        <v>9.495822925471591</v>
       </c>
       <c r="F13">
-        <v>43.31156757306834</v>
+        <v>51.36066018860544</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>26.40234019590527</v>
+        <v>35.57741288795896</v>
       </c>
       <c r="J13">
-        <v>5.582974688654454</v>
+        <v>9.290027376535583</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.786187700173848</v>
+        <v>12.14354269989303</v>
       </c>
       <c r="M13">
-        <v>17.47354319831068</v>
+        <v>20.99001011472367</v>
       </c>
       <c r="N13">
-        <v>13.09019233768283</v>
+        <v>21.75935048269486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.14238630087728</v>
+        <v>26.15709405171163</v>
       </c>
       <c r="C14">
-        <v>21.46863213743608</v>
+        <v>13.84373229952807</v>
       </c>
       <c r="D14">
-        <v>3.227383914421472</v>
+        <v>4.243774505067347</v>
       </c>
       <c r="E14">
-        <v>6.321653983386795</v>
+        <v>9.493246711512256</v>
       </c>
       <c r="F14">
-        <v>43.06930003363229</v>
+        <v>51.34070745429958</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>26.31002237213151</v>
+        <v>35.57958390798598</v>
       </c>
       <c r="J14">
-        <v>5.586876703952506</v>
+        <v>9.291189091966999</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.762621100182184</v>
+        <v>12.1443502798408</v>
       </c>
       <c r="M14">
-        <v>17.35754912791548</v>
+        <v>20.97588268501406</v>
       </c>
       <c r="N14">
-        <v>13.14464837103614</v>
+        <v>21.77219422458529</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.971724275494</v>
+        <v>26.1178139530698</v>
       </c>
       <c r="C15">
-        <v>21.33772849796171</v>
+        <v>13.79915180377466</v>
       </c>
       <c r="D15">
-        <v>3.211556071966226</v>
+        <v>4.24037707535502</v>
       </c>
       <c r="E15">
-        <v>6.313078686365905</v>
+        <v>9.491665529449582</v>
       </c>
       <c r="F15">
-        <v>42.92147073034396</v>
+        <v>51.32871785420948</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>26.25405067093229</v>
+        <v>35.58105806741819</v>
       </c>
       <c r="J15">
-        <v>5.589273611169607</v>
+        <v>9.291904991719473</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.748258733598812</v>
+        <v>12.14487689890062</v>
       </c>
       <c r="M15">
-        <v>17.28643202574262</v>
+        <v>20.96730108383412</v>
       </c>
       <c r="N15">
-        <v>13.17803498358783</v>
+        <v>21.78009967629988</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.02558356135537</v>
+        <v>25.89340544380607</v>
       </c>
       <c r="C16">
-        <v>20.57875212110751</v>
+        <v>13.54191316125435</v>
       </c>
       <c r="D16">
-        <v>3.120903659098498</v>
+        <v>4.220747759447923</v>
       </c>
       <c r="E16">
-        <v>6.264262196681704</v>
+        <v>9.482555560874919</v>
       </c>
       <c r="F16">
-        <v>42.08287714921998</v>
+        <v>51.26357243607067</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>25.94193228104306</v>
+        <v>35.59171603227371</v>
       </c>
       <c r="J16">
-        <v>5.603115237314907</v>
+        <v>9.296073776727823</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.667057652516257</v>
+        <v>12.14838490210634</v>
       </c>
       <c r="M16">
-        <v>16.87786725636004</v>
+        <v>20.91923254204862</v>
       </c>
       <c r="N16">
-        <v>13.36986265909713</v>
+        <v>21.82599034189374</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.43710937107367</v>
+        <v>25.75641992205315</v>
       </c>
       <c r="C17">
-        <v>20.10509432062607</v>
+        <v>13.38261528453143</v>
       </c>
       <c r="D17">
-        <v>3.065293573193388</v>
+        <v>4.208563178644017</v>
       </c>
       <c r="E17">
-        <v>6.234575838449776</v>
+        <v>9.476923118327123</v>
       </c>
       <c r="F17">
-        <v>41.57594071501524</v>
+        <v>51.22679213703682</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>25.75795992103542</v>
+        <v>35.6002238669371</v>
       </c>
       <c r="J17">
-        <v>5.611702794301824</v>
+        <v>9.298690427746708</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.618215508613297</v>
+        <v>12.15097475550454</v>
       </c>
       <c r="M17">
-        <v>16.6263356092911</v>
+        <v>20.89074200213276</v>
       </c>
       <c r="N17">
-        <v>13.48802548431607</v>
+        <v>21.85466814171421</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.09565703391946</v>
+        <v>25.67790637175003</v>
       </c>
       <c r="C18">
-        <v>19.82963254580912</v>
+        <v>13.29047876752263</v>
       </c>
       <c r="D18">
-        <v>3.033292957898961</v>
+        <v>4.201502576353875</v>
       </c>
       <c r="E18">
-        <v>6.217586001363539</v>
+        <v>9.473667329097433</v>
       </c>
       <c r="F18">
-        <v>41.28708386162365</v>
+        <v>51.20680934567975</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>25.65482323607513</v>
+        <v>35.60584003177416</v>
       </c>
       <c r="J18">
-        <v>5.616678118611105</v>
+        <v>9.300217272223628</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.590475340469228</v>
+        <v>12.15262542457683</v>
       </c>
       <c r="M18">
-        <v>16.48134588227251</v>
+        <v>20.87472492445568</v>
       </c>
       <c r="N18">
-        <v>13.55618061393561</v>
+        <v>21.87135629426986</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.97953448570402</v>
+        <v>25.65137309080994</v>
       </c>
       <c r="C19">
-        <v>19.73584001129289</v>
+        <v>13.2591983324632</v>
       </c>
       <c r="D19">
-        <v>3.022454068356901</v>
+        <v>4.199102991963056</v>
       </c>
       <c r="E19">
-        <v>6.211847142908017</v>
+        <v>9.472562193019124</v>
       </c>
       <c r="F19">
-        <v>41.18974559390705</v>
+        <v>51.200245024591</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>25.62035590730788</v>
+        <v>35.60786557935918</v>
       </c>
       <c r="J19">
-        <v>5.618368919646534</v>
+        <v>9.300737986903169</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.581143134282621</v>
+        <v>12.153211988474</v>
       </c>
       <c r="M19">
-        <v>16.43220212974058</v>
+        <v>20.86936564623058</v>
       </c>
       <c r="N19">
-        <v>13.57929085637056</v>
+        <v>21.87703987497222</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.50006127793704</v>
+        <v>25.77097420122354</v>
       </c>
       <c r="C20">
-        <v>20.15582773951111</v>
+        <v>13.39962667813191</v>
       </c>
       <c r="D20">
-        <v>3.071214586695476</v>
+        <v>4.209865667849551</v>
       </c>
       <c r="E20">
-        <v>6.237726970408949</v>
+        <v>9.477524372024613</v>
       </c>
       <c r="F20">
-        <v>41.62962265907964</v>
+        <v>51.23058618038407</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>25.77726506900186</v>
+        <v>35.59924337275117</v>
       </c>
       <c r="J20">
-        <v>5.610784923973558</v>
+        <v>9.298409623965377</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.623378251779246</v>
+        <v>12.15068239626282</v>
       </c>
       <c r="M20">
-        <v>16.65314454606619</v>
+        <v>20.89373665312884</v>
       </c>
       <c r="N20">
-        <v>13.47542738765181</v>
+        <v>21.85159532913422</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.22658788472131</v>
+        <v>26.17594119980112</v>
       </c>
       <c r="C21">
-        <v>21.53125059678688</v>
+        <v>13.86507745832292</v>
       </c>
       <c r="D21">
-        <v>3.234975325184764</v>
+        <v>4.245400832118766</v>
       </c>
       <c r="E21">
-        <v>6.325772250321525</v>
+        <v>9.494004069615372</v>
       </c>
       <c r="F21">
-        <v>43.14034148288541</v>
+        <v>51.34651971668674</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>26.33701793053278</v>
+        <v>35.57891613968624</v>
       </c>
       <c r="J21">
-        <v>5.58572917194607</v>
+        <v>9.290846968894511</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.769527966323557</v>
+        <v>12.1441064160562</v>
       </c>
       <c r="M21">
-        <v>17.3916334568012</v>
+        <v>20.98001729739505</v>
       </c>
       <c r="N21">
-        <v>13.1286469877706</v>
+        <v>21.76841372889868</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.40088214572566</v>
+        <v>26.44251841377987</v>
       </c>
       <c r="C22">
-        <v>22.40473000456854</v>
+        <v>14.16399078580409</v>
       </c>
       <c r="D22">
-        <v>3.342227740141775</v>
+        <v>4.268157588183342</v>
       </c>
       <c r="E22">
-        <v>6.384316226514482</v>
+        <v>9.504632135079873</v>
       </c>
       <c r="F22">
-        <v>44.15292114251327</v>
+        <v>51.43267980058817</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>26.7284016249179</v>
+        <v>35.57208886428297</v>
       </c>
       <c r="J22">
-        <v>5.569660352955606</v>
+        <v>9.286097614192535</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.86829300830386</v>
+        <v>12.14123922095858</v>
       </c>
       <c r="M22">
-        <v>17.87128909259438</v>
+        <v>21.03963156551475</v>
       </c>
       <c r="N22">
-        <v>12.90341763696333</v>
+        <v>21.71576446347416</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.77722934054986</v>
+        <v>26.30009342809098</v>
       </c>
       <c r="C23">
-        <v>21.94078629508948</v>
+        <v>14.00497167792417</v>
       </c>
       <c r="D23">
-        <v>3.284945273124384</v>
+        <v>4.256054721202577</v>
       </c>
       <c r="E23">
-        <v>6.352965682400942</v>
+        <v>9.498972690635069</v>
       </c>
       <c r="F23">
-        <v>43.61011789311483</v>
+        <v>51.38574648995844</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>26.51708880073539</v>
+        <v>35.57514084371186</v>
       </c>
       <c r="J23">
-        <v>5.578209219701731</v>
+        <v>9.28861479700336</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.815277069851083</v>
+        <v>12.14263878373348</v>
       </c>
       <c r="M23">
-        <v>17.61556429172331</v>
+        <v>21.00752272035562</v>
       </c>
       <c r="N23">
-        <v>13.02351161507385</v>
+        <v>21.74370784655208</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.47161047698124</v>
+        <v>25.76439345387807</v>
       </c>
       <c r="C24">
-        <v>20.13290098708441</v>
+        <v>13.39193754458104</v>
       </c>
       <c r="D24">
-        <v>3.068537792557168</v>
+        <v>4.20927698543958</v>
       </c>
       <c r="E24">
-        <v>6.236302105615992</v>
+        <v>9.477252600152974</v>
       </c>
       <c r="F24">
-        <v>41.60534500196395</v>
+        <v>51.22886727116575</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>25.76852903344071</v>
+        <v>35.5996843963878</v>
       </c>
       <c r="J24">
-        <v>5.61119977393862</v>
+        <v>9.298536505269141</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.621043118199404</v>
+        <v>12.1508140680765</v>
       </c>
       <c r="M24">
-        <v>16.64102540916244</v>
+        <v>20.89238164145952</v>
       </c>
       <c r="N24">
-        <v>13.48112229326648</v>
+        <v>21.85298392178031</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.92633725893521</v>
+        <v>25.19747164687396</v>
       </c>
       <c r="C25">
-        <v>18.06645344132719</v>
+        <v>12.71160967893754</v>
       </c>
       <c r="D25">
-        <v>2.834388247397509</v>
+        <v>4.156818706975544</v>
       </c>
       <c r="E25">
-        <v>6.11360792832958</v>
+        <v>9.453205252937503</v>
       </c>
       <c r="F25">
-        <v>39.54669459212528</v>
+        <v>51.10447357438157</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>25.06264838209624</v>
+        <v>35.65376970399458</v>
       </c>
       <c r="J25">
-        <v>5.648169052299994</v>
+        <v>9.310073369184099</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.424971678405584</v>
+        <v>12.165791269619</v>
       </c>
       <c r="M25">
-        <v>15.57814713707375</v>
+        <v>20.78235978823934</v>
       </c>
       <c r="N25">
-        <v>13.98219950153939</v>
+        <v>21.97825661289538</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.79234167118218</v>
+        <v>23.95464279071381</v>
       </c>
       <c r="C2">
-        <v>12.19868981780221</v>
+        <v>16.43792727178363</v>
       </c>
       <c r="D2">
-        <v>4.116472192994418</v>
+        <v>2.659822446867379</v>
       </c>
       <c r="E2">
-        <v>9.434954983491286</v>
+        <v>6.024881183097105</v>
       </c>
       <c r="F2">
-        <v>51.05152519456227</v>
+        <v>38.11684799997903</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>35.71718101469777</v>
+        <v>24.62164796036008</v>
       </c>
       <c r="J2">
-        <v>9.319292756765989</v>
+        <v>5.676656160064901</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.18213002633299</v>
+        <v>7.291691832136955</v>
       </c>
       <c r="M2">
-        <v>20.71384453939639</v>
+        <v>14.78795821981296</v>
       </c>
       <c r="N2">
-        <v>22.07692054025606</v>
+        <v>14.35916961134696</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.52690093257683</v>
+        <v>22.5595535337223</v>
       </c>
       <c r="C3">
-        <v>11.84615480778835</v>
+        <v>15.26467840490465</v>
       </c>
       <c r="D3">
-        <v>4.0880550109427</v>
+        <v>2.539575378072118</v>
       </c>
       <c r="E3">
-        <v>9.422241046720384</v>
+        <v>5.965301645093607</v>
       </c>
       <c r="F3">
-        <v>51.03973662063841</v>
+        <v>37.20057288397469</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>35.77477713447134</v>
+        <v>24.36772141105509</v>
       </c>
       <c r="J3">
-        <v>9.325996496786265</v>
+        <v>5.696788931021943</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.19652173816144</v>
+        <v>7.208091310575917</v>
       </c>
       <c r="M3">
-        <v>20.67533557885137</v>
+        <v>14.24973997230866</v>
       </c>
       <c r="N3">
-        <v>22.14782543832302</v>
+        <v>14.62042850390129</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.36889176902148</v>
+        <v>21.67529943803873</v>
       </c>
       <c r="C4">
-        <v>11.62822034687833</v>
+        <v>14.52249310689914</v>
       </c>
       <c r="D4">
-        <v>4.070077268847864</v>
+        <v>2.46463435116243</v>
       </c>
       <c r="E4">
-        <v>9.414262293700286</v>
+        <v>5.928862279207279</v>
       </c>
       <c r="F4">
-        <v>51.04436539992822</v>
+        <v>36.66382507004931</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>35.81731954102652</v>
+        <v>24.23260055394605</v>
       </c>
       <c r="J4">
-        <v>9.330338538789535</v>
+        <v>5.709569838222748</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.20699692142302</v>
+        <v>7.160019713221921</v>
       </c>
       <c r="M4">
-        <v>20.65563771639017</v>
+        <v>13.9188422626355</v>
       </c>
       <c r="N4">
-        <v>22.19336377595828</v>
+        <v>14.783939228681</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.30582228839021</v>
+        <v>21.30829459471736</v>
       </c>
       <c r="C5">
-        <v>11.53919234269344</v>
+        <v>14.22340464287847</v>
       </c>
       <c r="D5">
-        <v>4.062618182155227</v>
+        <v>2.433798749596313</v>
       </c>
       <c r="E5">
-        <v>9.410967310821276</v>
+        <v>5.91403164471185</v>
       </c>
       <c r="F5">
-        <v>51.04923214866243</v>
+        <v>36.45157651865537</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>35.83645571585497</v>
+        <v>24.18256091514904</v>
       </c>
       <c r="J5">
-        <v>9.332164926048851</v>
+        <v>5.714885199494263</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.21167793815646</v>
+        <v>7.141241701438084</v>
       </c>
       <c r="M5">
-        <v>20.64860851326571</v>
+        <v>13.78404920434897</v>
       </c>
       <c r="N5">
-        <v>22.21242588281552</v>
+        <v>14.85138416696895</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.29543140194033</v>
+        <v>21.24696141335892</v>
       </c>
       <c r="C6">
-        <v>11.5244007798242</v>
+        <v>14.17329469668286</v>
       </c>
       <c r="D6">
-        <v>4.061371576722818</v>
+        <v>2.428660167842985</v>
       </c>
       <c r="E6">
-        <v>9.410417542507577</v>
+        <v>5.911569685107804</v>
       </c>
       <c r="F6">
-        <v>51.05022014332408</v>
+        <v>36.41672350824296</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>35.83974180661274</v>
+        <v>24.17454922122402</v>
       </c>
       <c r="J6">
-        <v>9.33247164183706</v>
+        <v>5.715774321852667</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.21248012534245</v>
+        <v>7.138172397855561</v>
       </c>
       <c r="M6">
-        <v>20.64750172845293</v>
+        <v>13.76167493848273</v>
       </c>
       <c r="N6">
-        <v>22.21562166299561</v>
+        <v>14.86263343068889</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.36803575459877</v>
+        <v>21.67037641753751</v>
       </c>
       <c r="C7">
-        <v>11.62702035814402</v>
+        <v>14.51848947198865</v>
       </c>
       <c r="D7">
-        <v>4.06997721135326</v>
+        <v>2.464219712691901</v>
       </c>
       <c r="E7">
-        <v>9.414218033146744</v>
+        <v>5.928662213967436</v>
       </c>
       <c r="F7">
-        <v>51.04441897298004</v>
+        <v>36.66093640281669</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>35.81757033817435</v>
+        <v>24.23190563556937</v>
       </c>
       <c r="J7">
-        <v>9.330362939204674</v>
+        <v>5.709641087567871</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.20705838160088</v>
+        <v>7.159763191399645</v>
       </c>
       <c r="M7">
-        <v>20.65553887141188</v>
+        <v>13.91702396967858</v>
       </c>
       <c r="N7">
-        <v>22.19361880830841</v>
+        <v>14.78484547841203</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.69982855719711</v>
+        <v>23.47950737803124</v>
       </c>
       <c r="C8">
-        <v>12.07753171101105</v>
+        <v>16.04061046926397</v>
       </c>
       <c r="D8">
-        <v>4.106783915897962</v>
+        <v>2.618579495808248</v>
       </c>
       <c r="E8">
-        <v>9.430606842699856</v>
+        <v>6.004297688768781</v>
       </c>
       <c r="F8">
-        <v>51.04499585664034</v>
+        <v>37.7955407521162</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>35.73554730859874</v>
+        <v>24.52965626004838</v>
       </c>
       <c r="J8">
-        <v>9.321557413917327</v>
+        <v>5.683511894294761</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.18675235847364</v>
+        <v>7.26218508723105</v>
       </c>
       <c r="M8">
-        <v>20.69975094396984</v>
+        <v>14.6025589801449</v>
       </c>
       <c r="N8">
-        <v>22.10095374863339</v>
+        <v>14.4486299979466</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.38672562499629</v>
+        <v>26.7990027089944</v>
       </c>
       <c r="C9">
-        <v>12.94295895982826</v>
+        <v>18.77874061186029</v>
       </c>
       <c r="D9">
-        <v>4.174756801362238</v>
+        <v>2.91350673111941</v>
       </c>
       <c r="E9">
-        <v>9.461389392393007</v>
+        <v>6.15462064851765</v>
       </c>
       <c r="F9">
-        <v>51.14037594266006</v>
+        <v>40.22664747530628</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>35.63187536417949</v>
+        <v>25.28763327549325</v>
       </c>
       <c r="J9">
-        <v>9.306075025469001</v>
+        <v>5.635524112538042</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.15992201977785</v>
+        <v>7.489268664652875</v>
       </c>
       <c r="M9">
-        <v>20.81749914017265</v>
+        <v>15.93757456254461</v>
       </c>
       <c r="N9">
-        <v>21.93506412932303</v>
+        <v>13.81226911459544</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.90907205686634</v>
+        <v>29.09233033508395</v>
       </c>
       <c r="C10">
-        <v>13.56001811907462</v>
+        <v>20.63239450651841</v>
       </c>
       <c r="D10">
-        <v>4.222131006246007</v>
+        <v>3.127248229276415</v>
       </c>
       <c r="E10">
-        <v>9.483196077570259</v>
+        <v>6.267661904935454</v>
       </c>
       <c r="F10">
-        <v>51.267928029023</v>
+        <v>42.14109345622698</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>35.59084323718587</v>
+        <v>25.96329343510086</v>
       </c>
       <c r="J10">
-        <v>9.29577815138194</v>
+        <v>5.602140167243682</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.14811119368459</v>
+        <v>7.672678979683095</v>
       </c>
       <c r="M10">
-        <v>20.92253340934198</v>
+        <v>16.9065250672219</v>
       </c>
       <c r="N10">
-        <v>21.82274419021705</v>
+        <v>13.35640435684916</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.1495800097273</v>
+        <v>30.10877001469748</v>
       </c>
       <c r="C11">
-        <v>13.83521420947759</v>
+        <v>21.44363296617592</v>
       </c>
       <c r="D11">
-        <v>4.243125432202477</v>
+        <v>3.224356824857732</v>
       </c>
       <c r="E11">
-        <v>9.492944529659797</v>
+        <v>6.320012781188898</v>
       </c>
       <c r="F11">
-        <v>51.33840090837135</v>
+        <v>43.04099705447253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>35.57985725244958</v>
+        <v>26.29928488702775</v>
       </c>
       <c r="J11">
-        <v>9.291325737853304</v>
+        <v>5.587334660756503</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.14444908991992</v>
+        <v>7.759870265846961</v>
       </c>
       <c r="M11">
-        <v>20.97423735152845</v>
+        <v>17.34395335220681</v>
       </c>
       <c r="N11">
-        <v>21.77370371715278</v>
+        <v>13.15103106491746</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.24098889567962</v>
+        <v>30.51594146587628</v>
       </c>
       <c r="C12">
-        <v>13.93852551327057</v>
+        <v>21.74644616666358</v>
       </c>
       <c r="D12">
-        <v>4.250995370109025</v>
+        <v>3.261163223188751</v>
       </c>
       <c r="E12">
-        <v>9.496611614127584</v>
+        <v>6.340005272350051</v>
       </c>
       <c r="F12">
-        <v>51.3668709037321</v>
+        <v>43.38608246412589</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>35.57680480177344</v>
+        <v>26.43087955758003</v>
       </c>
       <c r="J12">
-        <v>9.289672876170894</v>
+        <v>5.581780900813173</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.14330781508883</v>
+        <v>7.793443225219892</v>
       </c>
       <c r="M12">
-        <v>20.99437066254046</v>
+        <v>17.50908397732403</v>
       </c>
       <c r="N12">
-        <v>21.75542742607267</v>
+        <v>13.07350622112972</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.22128880977843</v>
+        <v>30.42851105127419</v>
       </c>
       <c r="C13">
-        <v>13.91631718488012</v>
+        <v>21.68142121296362</v>
       </c>
       <c r="D13">
-        <v>4.249304007951938</v>
+        <v>3.253233909885051</v>
       </c>
       <c r="E13">
-        <v>9.495822925471591</v>
+        <v>6.335691433636273</v>
       </c>
       <c r="F13">
-        <v>51.36066018860544</v>
+        <v>43.31156757306833</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>35.57741288795896</v>
+        <v>26.40234019590517</v>
       </c>
       <c r="J13">
-        <v>9.290027376535583</v>
+        <v>5.582974688654387</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.14354269989303</v>
+        <v>7.786187700173904</v>
       </c>
       <c r="M13">
-        <v>20.99001011472367</v>
+        <v>17.47354319831068</v>
       </c>
       <c r="N13">
-        <v>21.75935048269486</v>
+        <v>13.09019233768268</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.15709405171163</v>
+        <v>30.14238630087734</v>
       </c>
       <c r="C14">
-        <v>13.84373229952807</v>
+        <v>21.46863213743618</v>
       </c>
       <c r="D14">
-        <v>4.243774505067347</v>
+        <v>3.227383914421548</v>
       </c>
       <c r="E14">
-        <v>9.493246711512256</v>
+        <v>6.321653983386927</v>
       </c>
       <c r="F14">
-        <v>51.34070745429958</v>
+        <v>43.06930003363232</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>35.57958390798598</v>
+        <v>26.31002237213151</v>
       </c>
       <c r="J14">
-        <v>9.291189091966999</v>
+        <v>5.586876703952606</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.1443502798408</v>
+        <v>7.762621100182207</v>
       </c>
       <c r="M14">
-        <v>20.97588268501406</v>
+        <v>17.35754912791548</v>
       </c>
       <c r="N14">
-        <v>21.77219422458529</v>
+        <v>13.14464837103606</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.1178139530698</v>
+        <v>29.97172427549404</v>
       </c>
       <c r="C15">
-        <v>13.79915180377466</v>
+        <v>21.33772849796179</v>
       </c>
       <c r="D15">
-        <v>4.24037707535502</v>
+        <v>3.211556071966158</v>
       </c>
       <c r="E15">
-        <v>9.491665529449582</v>
+        <v>6.313078686366032</v>
       </c>
       <c r="F15">
-        <v>51.32871785420948</v>
+        <v>42.92147073034391</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>35.58105806741819</v>
+        <v>26.2540506709322</v>
       </c>
       <c r="J15">
-        <v>9.291904991719473</v>
+        <v>5.58927361116964</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.14487689890062</v>
+        <v>7.748258733598837</v>
       </c>
       <c r="M15">
-        <v>20.96730108383412</v>
+        <v>17.28643202574262</v>
       </c>
       <c r="N15">
-        <v>21.78009967629988</v>
+        <v>13.17803498358772</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.89340544380607</v>
+        <v>29.0255835613554</v>
       </c>
       <c r="C16">
-        <v>13.54191316125435</v>
+        <v>20.57875212110753</v>
       </c>
       <c r="D16">
-        <v>4.220747759447923</v>
+        <v>3.120903659098497</v>
       </c>
       <c r="E16">
-        <v>9.482555560874919</v>
+        <v>6.264262196681772</v>
       </c>
       <c r="F16">
-        <v>51.26357243607067</v>
+        <v>42.0828771492199</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>35.59171603227371</v>
+        <v>25.94193228104294</v>
       </c>
       <c r="J16">
-        <v>9.296073776727823</v>
+        <v>5.603115237314908</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.14838490210634</v>
+        <v>7.667057652516268</v>
       </c>
       <c r="M16">
-        <v>20.91923254204862</v>
+        <v>16.87786725636002</v>
       </c>
       <c r="N16">
-        <v>21.82599034189374</v>
+        <v>13.36986265909704</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.75641992205315</v>
+        <v>28.43710937107367</v>
       </c>
       <c r="C17">
-        <v>13.38261528453143</v>
+        <v>20.10509432062607</v>
       </c>
       <c r="D17">
-        <v>4.208563178644017</v>
+        <v>3.06529357319338</v>
       </c>
       <c r="E17">
-        <v>9.476923118327123</v>
+        <v>6.234575838449976</v>
       </c>
       <c r="F17">
-        <v>51.22679213703682</v>
+        <v>41.57594071501522</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>35.6002238669371</v>
+        <v>25.75795992103544</v>
       </c>
       <c r="J17">
-        <v>9.298690427746708</v>
+        <v>5.61170279430199</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.15097475550454</v>
+        <v>7.618215508613374</v>
       </c>
       <c r="M17">
-        <v>20.89074200213276</v>
+        <v>16.62633560929112</v>
       </c>
       <c r="N17">
-        <v>21.85466814171421</v>
+        <v>13.48802548431606</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67790637175003</v>
+        <v>28.09565703391945</v>
       </c>
       <c r="C18">
-        <v>13.29047876752263</v>
+        <v>19.82963254580914</v>
       </c>
       <c r="D18">
-        <v>4.201502576353875</v>
+        <v>3.033292957899155</v>
       </c>
       <c r="E18">
-        <v>9.473667329097433</v>
+        <v>6.217586001363546</v>
       </c>
       <c r="F18">
-        <v>51.20680934567975</v>
+        <v>41.28708386162367</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>35.60584003177416</v>
+        <v>25.65482323607513</v>
       </c>
       <c r="J18">
-        <v>9.300217272223628</v>
+        <v>5.616678118611069</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.15262542457683</v>
+        <v>7.590475340469177</v>
       </c>
       <c r="M18">
-        <v>20.87472492445568</v>
+        <v>16.4813458822725</v>
       </c>
       <c r="N18">
-        <v>21.87135629426986</v>
+        <v>13.55618061393561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.65137309080994</v>
+        <v>27.97953448570402</v>
       </c>
       <c r="C19">
-        <v>13.2591983324632</v>
+        <v>19.73584001129282</v>
       </c>
       <c r="D19">
-        <v>4.199102991963056</v>
+        <v>3.022454068356598</v>
       </c>
       <c r="E19">
-        <v>9.472562193019124</v>
+        <v>6.211847142907818</v>
       </c>
       <c r="F19">
-        <v>51.200245024591</v>
+        <v>41.189745593907</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>35.60786557935918</v>
+        <v>25.62035590730789</v>
       </c>
       <c r="J19">
-        <v>9.300737986903169</v>
+        <v>5.6183689196465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.153211988474</v>
+        <v>7.581143134282543</v>
       </c>
       <c r="M19">
-        <v>20.86936564623058</v>
+        <v>16.43220212974057</v>
       </c>
       <c r="N19">
-        <v>21.87703987497222</v>
+        <v>13.57929085637056</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77097420122354</v>
+        <v>28.50006127793704</v>
       </c>
       <c r="C20">
-        <v>13.39962667813191</v>
+        <v>20.15582773951116</v>
       </c>
       <c r="D20">
-        <v>4.209865667849551</v>
+        <v>3.071214586695551</v>
       </c>
       <c r="E20">
-        <v>9.477524372024613</v>
+        <v>6.237726970408949</v>
       </c>
       <c r="F20">
-        <v>51.23058618038407</v>
+        <v>41.62962265907959</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>35.59924337275117</v>
+        <v>25.77726506900177</v>
       </c>
       <c r="J20">
-        <v>9.298409623965377</v>
+        <v>5.610784923973492</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.15068239626282</v>
+        <v>7.623378251779227</v>
       </c>
       <c r="M20">
-        <v>20.89373665312884</v>
+        <v>16.65314454606618</v>
       </c>
       <c r="N20">
-        <v>21.85159532913422</v>
+        <v>13.47542738765175</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.17594119980112</v>
+        <v>30.2265878847214</v>
       </c>
       <c r="C21">
-        <v>13.86507745832292</v>
+        <v>21.53125059678685</v>
       </c>
       <c r="D21">
-        <v>4.245400832118766</v>
+        <v>3.234975325184714</v>
       </c>
       <c r="E21">
-        <v>9.494004069615372</v>
+        <v>6.325772250321393</v>
       </c>
       <c r="F21">
-        <v>51.34651971668674</v>
+        <v>43.14034148288534</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>35.57891613968624</v>
+        <v>26.3370179305327</v>
       </c>
       <c r="J21">
-        <v>9.290846968894511</v>
+        <v>5.585729171946038</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.1441064160562</v>
+        <v>7.769527966323523</v>
       </c>
       <c r="M21">
-        <v>20.98001729739505</v>
+        <v>17.39163345680115</v>
       </c>
       <c r="N21">
-        <v>21.76841372889868</v>
+        <v>13.12864698777051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.44251841377987</v>
+        <v>31.40088214572567</v>
       </c>
       <c r="C22">
-        <v>14.16399078580409</v>
+        <v>22.4047300045685</v>
       </c>
       <c r="D22">
-        <v>4.268157588183342</v>
+        <v>3.342227740141768</v>
       </c>
       <c r="E22">
-        <v>9.504632135079873</v>
+        <v>6.384316226514413</v>
       </c>
       <c r="F22">
-        <v>51.43267980058817</v>
+        <v>44.15292114251323</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>35.57208886428297</v>
+        <v>26.72840162491787</v>
       </c>
       <c r="J22">
-        <v>9.286097614192535</v>
+        <v>5.569660352955538</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.14123922095858</v>
+        <v>7.868293008303824</v>
       </c>
       <c r="M22">
-        <v>21.03963156551475</v>
+        <v>17.87128909259437</v>
       </c>
       <c r="N22">
-        <v>21.71576446347416</v>
+        <v>12.9034176369633</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.30009342809098</v>
+        <v>30.77722934054986</v>
       </c>
       <c r="C23">
-        <v>14.00497167792417</v>
+        <v>21.94078629508968</v>
       </c>
       <c r="D23">
-        <v>4.256054721202577</v>
+        <v>3.284945273124398</v>
       </c>
       <c r="E23">
-        <v>9.498972690635069</v>
+        <v>6.352965682401076</v>
       </c>
       <c r="F23">
-        <v>51.38574648995844</v>
+        <v>43.61011789311494</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>35.57514084371186</v>
+        <v>26.51708880073556</v>
       </c>
       <c r="J23">
-        <v>9.28861479700336</v>
+        <v>5.578209219701864</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.14263878373348</v>
+        <v>7.815277069851034</v>
       </c>
       <c r="M23">
-        <v>21.00752272035562</v>
+        <v>17.61556429172333</v>
       </c>
       <c r="N23">
-        <v>21.74370784655208</v>
+        <v>13.02351161507399</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76439345387807</v>
+        <v>28.47161047698124</v>
       </c>
       <c r="C24">
-        <v>13.39193754458104</v>
+        <v>20.1329009870844</v>
       </c>
       <c r="D24">
-        <v>4.20927698543958</v>
+        <v>3.068537792557292</v>
       </c>
       <c r="E24">
-        <v>9.477252600152974</v>
+        <v>6.236302105615995</v>
       </c>
       <c r="F24">
-        <v>51.22886727116575</v>
+        <v>41.60534500196404</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>35.5996843963878</v>
+        <v>25.7685290334408</v>
       </c>
       <c r="J24">
-        <v>9.298536505269141</v>
+        <v>5.611199773938588</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.1508140680765</v>
+        <v>7.62104311819941</v>
       </c>
       <c r="M24">
-        <v>20.89238164145952</v>
+        <v>16.64102540916246</v>
       </c>
       <c r="N24">
-        <v>21.85298392178031</v>
+        <v>13.48112229326651</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.19747164687396</v>
+        <v>25.92633725893525</v>
       </c>
       <c r="C25">
-        <v>12.71160967893754</v>
+        <v>18.06645344132729</v>
       </c>
       <c r="D25">
-        <v>4.156818706975544</v>
+        <v>2.834388247397456</v>
       </c>
       <c r="E25">
-        <v>9.453205252937503</v>
+        <v>6.113607928329586</v>
       </c>
       <c r="F25">
-        <v>51.10447357438157</v>
+        <v>39.54669459212512</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>35.65376970399458</v>
+        <v>25.06264838209613</v>
       </c>
       <c r="J25">
-        <v>9.310073369184099</v>
+        <v>5.648169052300127</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.165791269619</v>
+        <v>7.424971678405521</v>
       </c>
       <c r="M25">
-        <v>20.78235978823934</v>
+        <v>15.57814713707371</v>
       </c>
       <c r="N25">
-        <v>21.97825661289538</v>
+        <v>13.98219950153931</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.95464279071381</v>
+        <v>15.08235277625865</v>
       </c>
       <c r="C2">
-        <v>16.43792727178363</v>
+        <v>7.60503729560799</v>
       </c>
       <c r="D2">
-        <v>2.659822446867379</v>
+        <v>2.127002217865217</v>
       </c>
       <c r="E2">
-        <v>6.024881183097105</v>
+        <v>5.112066824392199</v>
       </c>
       <c r="F2">
-        <v>38.11684799997903</v>
+        <v>35.38841328493373</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>4.608444916959808</v>
       </c>
       <c r="I2">
-        <v>24.62164796036008</v>
+        <v>5.033008981792233</v>
       </c>
       <c r="J2">
-        <v>5.676656160064901</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.60537832979188</v>
       </c>
       <c r="L2">
-        <v>7.291691832136955</v>
+        <v>5.419452544029711</v>
       </c>
       <c r="M2">
-        <v>14.78795821981296</v>
+        <v>12.99244315936251</v>
       </c>
       <c r="N2">
-        <v>14.35916961134696</v>
+        <v>6.396110277839971</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.02978594877904</v>
+      </c>
+      <c r="P2">
+        <v>16.76035722209539</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5595535337223</v>
+        <v>14.25574969816391</v>
       </c>
       <c r="C3">
-        <v>15.26467840490465</v>
+        <v>7.083155554231402</v>
       </c>
       <c r="D3">
-        <v>2.539575378072118</v>
+        <v>2.11122872140519</v>
       </c>
       <c r="E3">
-        <v>5.965301645093607</v>
+        <v>4.987288511880255</v>
       </c>
       <c r="F3">
-        <v>37.20057288397469</v>
+        <v>34.68436346385388</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>4.858047073134321</v>
       </c>
       <c r="I3">
-        <v>24.36772141105509</v>
+        <v>5.240615023774621</v>
       </c>
       <c r="J3">
-        <v>5.696788931021943</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>24.30662180965568</v>
       </c>
       <c r="L3">
-        <v>7.208091310575917</v>
+        <v>5.353302358792827</v>
       </c>
       <c r="M3">
-        <v>14.24973997230866</v>
+        <v>12.35499855336816</v>
       </c>
       <c r="N3">
-        <v>14.62042850390129</v>
+        <v>6.255633045132877</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.67226231234963</v>
+      </c>
+      <c r="P3">
+        <v>16.82899899914551</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.67529943803873</v>
+        <v>13.72361454605145</v>
       </c>
       <c r="C4">
-        <v>14.52249310689914</v>
+        <v>6.792144305369405</v>
       </c>
       <c r="D4">
-        <v>2.46463435116243</v>
+        <v>2.102093754728416</v>
       </c>
       <c r="E4">
-        <v>5.928862279207279</v>
+        <v>4.908512459732902</v>
       </c>
       <c r="F4">
-        <v>36.66382507004931</v>
+        <v>34.24966637601326</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>5.016699562053765</v>
       </c>
       <c r="I4">
-        <v>24.23260055394605</v>
+        <v>5.373104494982024</v>
       </c>
       <c r="J4">
-        <v>5.709569838222748</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>24.12265309528253</v>
       </c>
       <c r="L4">
-        <v>7.160019713221921</v>
+        <v>5.311163734661632</v>
       </c>
       <c r="M4">
-        <v>13.9188422626355</v>
+        <v>11.94940491482701</v>
       </c>
       <c r="N4">
-        <v>14.783939228681</v>
+        <v>6.16848091589738</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.44775444045186</v>
+      </c>
+      <c r="P4">
+        <v>16.87154375871143</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30829459471736</v>
+        <v>13.49474391603634</v>
       </c>
       <c r="C5">
-        <v>14.22340464287847</v>
+        <v>6.677327255071108</v>
       </c>
       <c r="D5">
-        <v>2.433798749596313</v>
+        <v>2.099742480284752</v>
       </c>
       <c r="E5">
-        <v>5.91403164471185</v>
+        <v>4.875647932408448</v>
       </c>
       <c r="F5">
-        <v>36.45157651865537</v>
+        <v>34.05909904316306</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>5.08322740751922</v>
       </c>
       <c r="I5">
-        <v>24.18256091514904</v>
+        <v>5.430677026901648</v>
       </c>
       <c r="J5">
-        <v>5.714885199494263</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>24.03797457071328</v>
       </c>
       <c r="L5">
-        <v>7.141241701438084</v>
+        <v>5.293168361983798</v>
       </c>
       <c r="M5">
-        <v>13.78404920434897</v>
+        <v>11.77855130829888</v>
       </c>
       <c r="N5">
-        <v>14.85138416696895</v>
+        <v>6.133760937594925</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.35391544858938</v>
+      </c>
+      <c r="P5">
+        <v>16.88575581181712</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24696141335892</v>
+        <v>13.44902677730014</v>
       </c>
       <c r="C6">
-        <v>14.17329469668286</v>
+        <v>6.664830565122243</v>
       </c>
       <c r="D6">
-        <v>2.428660167842985</v>
+        <v>2.100884935698172</v>
       </c>
       <c r="E6">
-        <v>5.911569685107804</v>
+        <v>4.86989751390954</v>
       </c>
       <c r="F6">
-        <v>36.41672350824296</v>
+        <v>34.01155878717567</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>5.09496345287257</v>
       </c>
       <c r="I6">
-        <v>24.17454922122402</v>
+        <v>5.443229505243823</v>
       </c>
       <c r="J6">
-        <v>5.715774321852667</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>24.01214997955455</v>
       </c>
       <c r="L6">
-        <v>7.138172397855561</v>
+        <v>5.289625848610322</v>
       </c>
       <c r="M6">
-        <v>13.76167493848273</v>
+        <v>11.74729981136617</v>
       </c>
       <c r="N6">
-        <v>14.86263343068889</v>
+        <v>6.129203144552414</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.33679045812098</v>
+      </c>
+      <c r="P6">
+        <v>16.88418159701521</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.67037641753751</v>
+        <v>13.70083888073071</v>
       </c>
       <c r="C7">
-        <v>14.51848947198865</v>
+        <v>6.808392976979738</v>
       </c>
       <c r="D7">
-        <v>2.464219712691901</v>
+        <v>2.106248720371565</v>
       </c>
       <c r="E7">
-        <v>5.928662213967436</v>
+        <v>4.907370923382837</v>
       </c>
       <c r="F7">
-        <v>36.66093640281669</v>
+        <v>34.20406761676605</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>5.01922227168859</v>
       </c>
       <c r="I7">
-        <v>24.23190563556937</v>
+        <v>5.381611184570049</v>
       </c>
       <c r="J7">
-        <v>5.709641087567871</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24.08955723046745</v>
       </c>
       <c r="L7">
-        <v>7.159763191399645</v>
+        <v>5.309491221313854</v>
       </c>
       <c r="M7">
-        <v>13.91702396967858</v>
+        <v>11.93989931490032</v>
       </c>
       <c r="N7">
-        <v>14.78484547841203</v>
+        <v>6.171320334754612</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.4424986782251</v>
+      </c>
+      <c r="P7">
+        <v>16.86103024337161</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.47950737803124</v>
+        <v>14.7780928095548</v>
       </c>
       <c r="C8">
-        <v>16.04061046926397</v>
+        <v>7.443541315757805</v>
       </c>
       <c r="D8">
-        <v>2.618579495808248</v>
+        <v>2.127096004520248</v>
       </c>
       <c r="E8">
-        <v>6.004297688768781</v>
+        <v>5.068600834478897</v>
       </c>
       <c r="F8">
-        <v>37.7955407521162</v>
+        <v>35.09086536263518</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>4.695467346972255</v>
       </c>
       <c r="I8">
-        <v>24.52965626004838</v>
+        <v>5.113354075872654</v>
       </c>
       <c r="J8">
-        <v>5.683511894294761</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24.4610199481689</v>
       </c>
       <c r="L8">
-        <v>7.26218508723105</v>
+        <v>5.395140458864823</v>
       </c>
       <c r="M8">
-        <v>14.6025589801449</v>
+        <v>12.76666623609187</v>
       </c>
       <c r="N8">
-        <v>14.4486299979466</v>
+        <v>6.3521549396808</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.90251086046417</v>
+      </c>
+      <c r="P8">
+        <v>16.7700316517919</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.7990027089944</v>
+        <v>16.72153187968888</v>
       </c>
       <c r="C9">
-        <v>18.77874061186029</v>
+        <v>8.686315960827432</v>
       </c>
       <c r="D9">
-        <v>2.91350673111941</v>
+        <v>2.16499439839135</v>
       </c>
       <c r="E9">
-        <v>6.15462064851765</v>
+        <v>5.369137101910614</v>
       </c>
       <c r="F9">
-        <v>40.22664747530628</v>
+        <v>36.87826379959564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>4.099565728459748</v>
       </c>
       <c r="I9">
-        <v>25.28763327549325</v>
+        <v>4.613559446371615</v>
       </c>
       <c r="J9">
-        <v>5.635524112538042</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.23923288796007</v>
       </c>
       <c r="L9">
-        <v>7.489268664652875</v>
+        <v>5.553729512369667</v>
       </c>
       <c r="M9">
-        <v>15.93757456254461</v>
+        <v>14.2803175479348</v>
       </c>
       <c r="N9">
-        <v>13.81226911459544</v>
+        <v>6.692810147944855</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.76745572670435</v>
+      </c>
+      <c r="P9">
+        <v>16.61339453336307</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.09233033508395</v>
+        <v>17.96140815467272</v>
       </c>
       <c r="C10">
-        <v>20.63239450651841</v>
+        <v>9.5312139117335</v>
       </c>
       <c r="D10">
-        <v>3.127248229276415</v>
+        <v>2.187172021301803</v>
       </c>
       <c r="E10">
-        <v>6.267661904935454</v>
+        <v>5.542647240849472</v>
       </c>
       <c r="F10">
-        <v>42.14109345622698</v>
+        <v>37.93821486331402</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.71214531875375</v>
       </c>
       <c r="I10">
-        <v>25.96329343510086</v>
+        <v>4.281170539362222</v>
       </c>
       <c r="J10">
-        <v>5.602140167243682</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.66264459408926</v>
       </c>
       <c r="L10">
-        <v>7.672678979683095</v>
+        <v>5.649087584924379</v>
       </c>
       <c r="M10">
-        <v>16.9065250672219</v>
+        <v>15.27421432817596</v>
       </c>
       <c r="N10">
-        <v>13.35640435684916</v>
+        <v>6.875640654568281</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.30507037060517</v>
+      </c>
+      <c r="P10">
+        <v>16.44897097290071</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.10877001469748</v>
+        <v>18.03182698882916</v>
       </c>
       <c r="C11">
-        <v>21.44363296617592</v>
+        <v>9.869809661154092</v>
       </c>
       <c r="D11">
-        <v>3.224356824857732</v>
+        <v>2.153187716735587</v>
       </c>
       <c r="E11">
-        <v>6.320012781188898</v>
+        <v>5.369714042690106</v>
       </c>
       <c r="F11">
-        <v>43.04099705447253</v>
+        <v>36.54503466332267</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>4.258690648962019</v>
       </c>
       <c r="I11">
-        <v>26.29928488702775</v>
+        <v>4.213052070270069</v>
       </c>
       <c r="J11">
-        <v>5.587334660756503</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.71026147391305</v>
       </c>
       <c r="L11">
-        <v>7.759870265846961</v>
+        <v>5.61000977919971</v>
       </c>
       <c r="M11">
-        <v>17.34395335220681</v>
+        <v>15.39743747505463</v>
       </c>
       <c r="N11">
-        <v>13.15103106491746</v>
+        <v>6.436713268214081</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.98240048434016</v>
+      </c>
+      <c r="P11">
+        <v>15.97695690124261</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.51594146587628</v>
+        <v>17.85591806978599</v>
       </c>
       <c r="C12">
-        <v>21.74644616666358</v>
+        <v>9.961844082032552</v>
       </c>
       <c r="D12">
-        <v>3.261163223188751</v>
+        <v>2.112279479049093</v>
       </c>
       <c r="E12">
-        <v>6.340005272350051</v>
+        <v>5.291923589200056</v>
       </c>
       <c r="F12">
-        <v>43.38608246412589</v>
+        <v>35.1916585260316</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>5.274470177755243</v>
       </c>
       <c r="I12">
-        <v>26.43087955758003</v>
+        <v>4.207055066239765</v>
       </c>
       <c r="J12">
-        <v>5.581780900813173</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.86311188632373</v>
       </c>
       <c r="L12">
-        <v>7.793443225219892</v>
+        <v>5.611894607234805</v>
       </c>
       <c r="M12">
-        <v>17.50908397732403</v>
+        <v>15.30110586276643</v>
       </c>
       <c r="N12">
-        <v>13.07350622112972</v>
+        <v>6.044123456981162</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.5966916123147</v>
+      </c>
+      <c r="P12">
+        <v>15.65084093505954</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.42851105127419</v>
+        <v>17.45031272233986</v>
       </c>
       <c r="C13">
-        <v>21.68142121296362</v>
+        <v>9.891485845372099</v>
       </c>
       <c r="D13">
-        <v>3.253233909885051</v>
+        <v>2.051052277632001</v>
       </c>
       <c r="E13">
-        <v>6.335691433636273</v>
+        <v>5.28211708460329</v>
       </c>
       <c r="F13">
-        <v>43.31156757306833</v>
+        <v>33.71059972862323</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.485125498405058</v>
       </c>
       <c r="I13">
-        <v>26.40234019590517</v>
+        <v>4.260943474174371</v>
       </c>
       <c r="J13">
-        <v>5.582974688654387</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.99531102911972</v>
       </c>
       <c r="L13">
-        <v>7.786187700173904</v>
+        <v>5.641238422959878</v>
       </c>
       <c r="M13">
-        <v>17.47354319831068</v>
+        <v>15.01754824047222</v>
       </c>
       <c r="N13">
-        <v>13.09019233768268</v>
+        <v>5.67045729004705</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.12726195784041</v>
+      </c>
+      <c r="P13">
+        <v>15.40302453810385</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.14238630087734</v>
+        <v>17.0522774111305</v>
       </c>
       <c r="C14">
-        <v>21.46863213743618</v>
+        <v>9.771751451516804</v>
       </c>
       <c r="D14">
-        <v>3.227383914421548</v>
+        <v>1.99998287286701</v>
       </c>
       <c r="E14">
-        <v>6.321653983386927</v>
+        <v>5.319487975088112</v>
       </c>
       <c r="F14">
-        <v>43.06930003363232</v>
+        <v>32.60291303667006</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.396994034449264</v>
       </c>
       <c r="I14">
-        <v>26.31002237213151</v>
+        <v>4.327954770030478</v>
       </c>
       <c r="J14">
-        <v>5.586876703952606</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.37350131299385</v>
       </c>
       <c r="L14">
-        <v>7.762621100182207</v>
+        <v>5.679818437925228</v>
       </c>
       <c r="M14">
-        <v>17.35754912791548</v>
+        <v>14.72898300620442</v>
       </c>
       <c r="N14">
-        <v>13.14464837103606</v>
+        <v>5.425884387775573</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.7568372729491</v>
+      </c>
+      <c r="P14">
+        <v>15.26755072571746</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.97172427549404</v>
+        <v>16.8990894642641</v>
       </c>
       <c r="C15">
-        <v>21.33772849796179</v>
+        <v>9.712645427590711</v>
       </c>
       <c r="D15">
-        <v>3.211556071966158</v>
+        <v>1.985236675580033</v>
       </c>
       <c r="E15">
-        <v>6.313078686366032</v>
+        <v>5.328399502855094</v>
       </c>
       <c r="F15">
-        <v>42.92147073034391</v>
+        <v>32.29370887203274</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.618306057809325</v>
       </c>
       <c r="I15">
-        <v>26.2540506709322</v>
+        <v>4.361147777994464</v>
       </c>
       <c r="J15">
-        <v>5.58927361116964</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.20816441233695</v>
       </c>
       <c r="L15">
-        <v>7.748258733598837</v>
+        <v>5.687908546622431</v>
       </c>
       <c r="M15">
-        <v>17.28643202574262</v>
+        <v>14.6159292633967</v>
       </c>
       <c r="N15">
-        <v>13.17803498358772</v>
+        <v>5.368651459951147</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.64783754532466</v>
+      </c>
+      <c r="P15">
+        <v>15.24606890400593</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.0255835613554</v>
+        <v>16.43075235925965</v>
       </c>
       <c r="C16">
-        <v>20.57875212110753</v>
+        <v>9.38315336493384</v>
       </c>
       <c r="D16">
-        <v>3.120903659098497</v>
+        <v>1.948701709704411</v>
       </c>
       <c r="E16">
-        <v>6.264262196681772</v>
+        <v>5.250048791069425</v>
       </c>
       <c r="F16">
-        <v>42.0828771492199</v>
+        <v>32.08051304346729</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.494389747758998</v>
       </c>
       <c r="I16">
-        <v>25.94193228104294</v>
+        <v>4.496659903498904</v>
       </c>
       <c r="J16">
-        <v>5.603115237314908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.1755755774855</v>
       </c>
       <c r="L16">
-        <v>7.667057652516268</v>
+        <v>5.637050087294175</v>
       </c>
       <c r="M16">
-        <v>16.87786725636002</v>
+        <v>14.23872279539221</v>
       </c>
       <c r="N16">
-        <v>13.36986265909704</v>
+        <v>5.362860350018208</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.49718193156683</v>
+      </c>
+      <c r="P16">
+        <v>15.36166442783741</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.43710937107367</v>
+        <v>16.28646628334582</v>
       </c>
       <c r="C17">
-        <v>20.10509432062607</v>
+        <v>9.192975104631545</v>
       </c>
       <c r="D17">
-        <v>3.06529357319338</v>
+        <v>1.949204577523978</v>
       </c>
       <c r="E17">
-        <v>6.234575838449976</v>
+        <v>5.159755911742558</v>
       </c>
       <c r="F17">
-        <v>41.57594071501522</v>
+        <v>32.51316546123471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.897444125110906</v>
       </c>
       <c r="I17">
-        <v>25.75795992103544</v>
+        <v>4.565805891168708</v>
       </c>
       <c r="J17">
-        <v>5.61170279430199</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.48069338796027</v>
       </c>
       <c r="L17">
-        <v>7.618215508613374</v>
+        <v>5.57314298009757</v>
       </c>
       <c r="M17">
-        <v>16.62633560929112</v>
+        <v>14.1051869847864</v>
       </c>
       <c r="N17">
-        <v>13.48802548431606</v>
+        <v>5.485131756282298</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.58268662235615</v>
+      </c>
+      <c r="P17">
+        <v>15.51946306101594</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.09565703391945</v>
+        <v>16.42318282110719</v>
       </c>
       <c r="C18">
-        <v>19.82963254580914</v>
+        <v>9.092908203266296</v>
       </c>
       <c r="D18">
-        <v>3.033292957899155</v>
+        <v>1.998608055456266</v>
       </c>
       <c r="E18">
-        <v>6.217586001363546</v>
+        <v>5.102930574895832</v>
       </c>
       <c r="F18">
-        <v>41.28708386162367</v>
+        <v>33.58387308830756</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.892370075664208</v>
       </c>
       <c r="I18">
-        <v>25.65482323607513</v>
+        <v>4.575040810788201</v>
       </c>
       <c r="J18">
-        <v>5.616678118611069</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.1405854655386</v>
       </c>
       <c r="L18">
-        <v>7.590475340469177</v>
+        <v>5.516128385492877</v>
       </c>
       <c r="M18">
-        <v>16.4813458822725</v>
+        <v>14.17376495328453</v>
       </c>
       <c r="N18">
-        <v>13.55618061393561</v>
+        <v>5.750037200986519</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.88405849859473</v>
+      </c>
+      <c r="P18">
+        <v>15.7515935141831</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.97953448570402</v>
+        <v>16.74113771072706</v>
       </c>
       <c r="C19">
-        <v>19.73584001129282</v>
+        <v>9.098635040972134</v>
       </c>
       <c r="D19">
-        <v>3.022454068356598</v>
+        <v>2.071871974634923</v>
       </c>
       <c r="E19">
-        <v>6.211847142907818</v>
+        <v>5.157397222735476</v>
       </c>
       <c r="F19">
-        <v>41.189745593907</v>
+        <v>35.02214959896872</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>4.807083654299644</v>
       </c>
       <c r="I19">
-        <v>25.62035590730789</v>
+        <v>4.547772589391293</v>
       </c>
       <c r="J19">
-        <v>5.6183689196465</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.99770418219921</v>
       </c>
       <c r="L19">
-        <v>7.581143134282543</v>
+        <v>5.50648346593481</v>
       </c>
       <c r="M19">
-        <v>16.43220212974057</v>
+        <v>14.38503721891282</v>
       </c>
       <c r="N19">
-        <v>13.57929085637056</v>
+        <v>6.140188483327948</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.32765535271386</v>
+      </c>
+      <c r="P19">
+        <v>16.03289162982242</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.50006127793704</v>
+        <v>17.59253510807875</v>
       </c>
       <c r="C20">
-        <v>20.15582773951116</v>
+        <v>9.354094312751274</v>
       </c>
       <c r="D20">
-        <v>3.071214586695551</v>
+        <v>2.194409835778995</v>
       </c>
       <c r="E20">
-        <v>6.237726970408949</v>
+        <v>5.493880502291951</v>
       </c>
       <c r="F20">
-        <v>41.62962265907959</v>
+        <v>37.53111600542096</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.817041298954099</v>
       </c>
       <c r="I20">
-        <v>25.77726506900177</v>
+        <v>4.392288569249137</v>
       </c>
       <c r="J20">
-        <v>5.610784923973492</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.45364605819798</v>
       </c>
       <c r="L20">
-        <v>7.623378251779227</v>
+        <v>5.619971967666856</v>
       </c>
       <c r="M20">
-        <v>16.65314454606618</v>
+        <v>14.99845886063448</v>
       </c>
       <c r="N20">
-        <v>13.47542738765175</v>
+        <v>6.834568583270011</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.15216912488513</v>
+      </c>
+      <c r="P20">
+        <v>16.45866199405789</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.2265878847214</v>
+        <v>18.59514590273055</v>
       </c>
       <c r="C21">
-        <v>21.53125059678685</v>
+        <v>9.978880962744141</v>
       </c>
       <c r="D21">
-        <v>3.234975325184714</v>
+        <v>2.24533776531203</v>
       </c>
       <c r="E21">
-        <v>6.325772250321393</v>
+        <v>5.682662305001149</v>
       </c>
       <c r="F21">
-        <v>43.14034148288534</v>
+        <v>38.68938153756967</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.486610182749481</v>
       </c>
       <c r="I21">
-        <v>26.3370179305327</v>
+        <v>4.127071492208763</v>
       </c>
       <c r="J21">
-        <v>5.585729171946038</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.99558405872261</v>
       </c>
       <c r="L21">
-        <v>7.769527966323523</v>
+        <v>5.713453849081968</v>
       </c>
       <c r="M21">
-        <v>17.39163345680115</v>
+        <v>15.79341669844556</v>
       </c>
       <c r="N21">
-        <v>13.12864698777051</v>
+        <v>7.067486401425964</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.65575621918932</v>
+      </c>
+      <c r="P21">
+        <v>16.41154302898255</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.40088214572567</v>
+        <v>19.2183932208069</v>
       </c>
       <c r="C22">
-        <v>22.4047300045685</v>
+        <v>10.35725712925184</v>
       </c>
       <c r="D22">
-        <v>3.342227740141768</v>
+        <v>2.297002485817774</v>
       </c>
       <c r="E22">
-        <v>6.384316226514413</v>
+        <v>5.786011780128348</v>
       </c>
       <c r="F22">
-        <v>44.15292114251323</v>
+        <v>39.38014901309393</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.285349028030701</v>
       </c>
       <c r="I22">
-        <v>26.72840162491787</v>
+        <v>3.951136401069875</v>
       </c>
       <c r="J22">
-        <v>5.569660352955538</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.32002029793229</v>
       </c>
       <c r="L22">
-        <v>7.868293008303824</v>
+        <v>5.767957801121041</v>
       </c>
       <c r="M22">
-        <v>17.87128909259437</v>
+        <v>16.28621488432308</v>
       </c>
       <c r="N22">
-        <v>12.9034176369633</v>
+        <v>7.182289102992898</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.94924351352328</v>
+      </c>
+      <c r="P22">
+        <v>16.37056086289673</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.77722934054986</v>
+        <v>18.9056689939612</v>
       </c>
       <c r="C23">
-        <v>21.94078629508968</v>
+        <v>10.14218961138153</v>
       </c>
       <c r="D23">
-        <v>3.284945273124398</v>
+        <v>2.262719338198012</v>
       </c>
       <c r="E23">
-        <v>6.352965682401076</v>
+        <v>5.731688815256165</v>
       </c>
       <c r="F23">
-        <v>43.61011789311494</v>
+        <v>39.05640014059901</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.390798490919897</v>
       </c>
       <c r="I23">
-        <v>26.51708880073556</v>
+        <v>4.034895472930568</v>
       </c>
       <c r="J23">
-        <v>5.578209219701864</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.18128176857966</v>
       </c>
       <c r="L23">
-        <v>7.815277069851034</v>
+        <v>5.740391629900042</v>
       </c>
       <c r="M23">
-        <v>17.61556429172333</v>
+        <v>16.03137690283919</v>
       </c>
       <c r="N23">
-        <v>13.02351161507399</v>
+        <v>7.117664094784207</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.79724848454926</v>
+      </c>
+      <c r="P23">
+        <v>16.40421707416227</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.47161047698124</v>
+        <v>17.64569626802517</v>
       </c>
       <c r="C24">
-        <v>20.1329009870844</v>
+        <v>9.324921874994747</v>
       </c>
       <c r="D24">
-        <v>3.068537792557292</v>
+        <v>2.194786264061927</v>
       </c>
       <c r="E24">
-        <v>6.236302105615995</v>
+        <v>5.521788934530051</v>
       </c>
       <c r="F24">
-        <v>41.60534500196404</v>
+        <v>37.74958855869485</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.800304162744511</v>
       </c>
       <c r="I24">
-        <v>25.7685290334408</v>
+        <v>4.375251089245383</v>
       </c>
       <c r="J24">
-        <v>5.611199773938588</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.60004143896301</v>
       </c>
       <c r="L24">
-        <v>7.62104311819941</v>
+        <v>5.631643102915733</v>
       </c>
       <c r="M24">
-        <v>16.64102540916246</v>
+        <v>15.02408263113285</v>
       </c>
       <c r="N24">
-        <v>13.48112229326651</v>
+        <v>6.875252581382821</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.20150808339928</v>
+      </c>
+      <c r="P24">
+        <v>16.5142037255479</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.92633725893525</v>
+        <v>16.18739161987332</v>
       </c>
       <c r="C25">
-        <v>18.06645344132729</v>
+        <v>8.387940245029773</v>
       </c>
       <c r="D25">
-        <v>2.834388247397456</v>
+        <v>2.162103636056278</v>
       </c>
       <c r="E25">
-        <v>6.113607928329586</v>
+        <v>5.288433307503892</v>
       </c>
       <c r="F25">
-        <v>39.54669459212512</v>
+        <v>36.32573849849215</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>4.259136047728407</v>
       </c>
       <c r="I25">
-        <v>25.06264838209613</v>
+        <v>4.758452191764508</v>
       </c>
       <c r="J25">
-        <v>5.648169052300127</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.97450607322989</v>
       </c>
       <c r="L25">
-        <v>7.424971678405521</v>
+        <v>5.509695298722515</v>
       </c>
       <c r="M25">
-        <v>15.57814713707371</v>
+        <v>13.87302234966785</v>
       </c>
       <c r="N25">
-        <v>13.98219950153931</v>
+        <v>6.607341495238446</v>
       </c>
       <c r="O25">
+        <v>11.53211437835893</v>
+      </c>
+      <c r="P25">
+        <v>16.63685656021696</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.08235277625865</v>
+        <v>14.11474385809712</v>
       </c>
       <c r="C2">
-        <v>7.60503729560799</v>
+        <v>8.30552313694642</v>
       </c>
       <c r="D2">
-        <v>2.127002217865217</v>
+        <v>2.333467014713885</v>
       </c>
       <c r="E2">
-        <v>5.112066824392199</v>
+        <v>5.214337405467042</v>
       </c>
       <c r="F2">
-        <v>35.38841328493373</v>
+        <v>33.01315067017278</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.608444916959808</v>
+        <v>4.321662062045228</v>
       </c>
       <c r="I2">
-        <v>5.033008981792233</v>
+        <v>4.679859340030569</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>24.60537832979188</v>
+        <v>22.57359551756702</v>
       </c>
       <c r="L2">
-        <v>5.419452544029711</v>
+        <v>17.09027139259385</v>
       </c>
       <c r="M2">
-        <v>12.99244315936251</v>
+        <v>16.38771339917056</v>
       </c>
       <c r="N2">
-        <v>6.396110277839971</v>
+        <v>5.359094704919911</v>
       </c>
       <c r="O2">
-        <v>11.02978594877904</v>
+        <v>12.61416626088035</v>
       </c>
       <c r="P2">
-        <v>16.76035722209539</v>
+        <v>6.772336190242674</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.79197941389252</v>
+      </c>
+      <c r="R2">
+        <v>15.98545012199056</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.25574969816391</v>
+        <v>13.3393840343122</v>
       </c>
       <c r="C3">
-        <v>7.083155554231402</v>
+        <v>7.799062639898853</v>
       </c>
       <c r="D3">
-        <v>2.11122872140519</v>
+        <v>2.235759900645226</v>
       </c>
       <c r="E3">
-        <v>4.987288511880255</v>
+        <v>5.097510627143658</v>
       </c>
       <c r="F3">
-        <v>34.68436346385388</v>
+        <v>32.4872268077777</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.858047073134321</v>
+        <v>4.55143762524042</v>
       </c>
       <c r="I3">
-        <v>5.240615023774621</v>
+        <v>4.863426159416064</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>24.30662180965568</v>
+        <v>22.40624607497515</v>
       </c>
       <c r="L3">
-        <v>5.353302358792827</v>
+        <v>17.04880004703487</v>
       </c>
       <c r="M3">
-        <v>12.35499855336816</v>
+        <v>16.21146038908423</v>
       </c>
       <c r="N3">
-        <v>6.255633045132877</v>
+        <v>5.29898969587023</v>
       </c>
       <c r="O3">
-        <v>10.67226231234963</v>
+        <v>11.99151910434377</v>
       </c>
       <c r="P3">
-        <v>16.82899899914551</v>
+        <v>6.627064600158715</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.44603893027506</v>
+      </c>
+      <c r="R3">
+        <v>16.0967185754258</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.72361454605145</v>
+        <v>12.8383247838299</v>
       </c>
       <c r="C4">
-        <v>6.792144305369405</v>
+        <v>7.480801640262477</v>
       </c>
       <c r="D4">
-        <v>2.102093754728416</v>
+        <v>2.175130822602149</v>
       </c>
       <c r="E4">
-        <v>4.908512459732902</v>
+        <v>5.023763080430896</v>
       </c>
       <c r="F4">
-        <v>34.24966637601326</v>
+        <v>32.16331161599396</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.016699562053765</v>
+        <v>4.697603953604057</v>
       </c>
       <c r="I4">
-        <v>5.373104494982024</v>
+        <v>4.980888183370325</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>24.12265309528253</v>
+        <v>22.30314249440418</v>
       </c>
       <c r="L4">
-        <v>5.311163734661632</v>
+        <v>17.01783139210006</v>
       </c>
       <c r="M4">
-        <v>11.94940491482701</v>
+        <v>16.11786981076082</v>
       </c>
       <c r="N4">
-        <v>6.16848091589738</v>
+        <v>5.260671720235544</v>
       </c>
       <c r="O4">
-        <v>10.44775444045186</v>
+        <v>11.59439153963892</v>
       </c>
       <c r="P4">
-        <v>16.87154375871143</v>
+        <v>6.537281091559405</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.22851861869762</v>
+      </c>
+      <c r="R4">
+        <v>16.16548591126419</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.49474391603634</v>
+        <v>12.62220516155325</v>
       </c>
       <c r="C5">
-        <v>6.677327255071108</v>
+        <v>7.354542641297153</v>
       </c>
       <c r="D5">
-        <v>2.099742480284752</v>
+        <v>2.152389652884317</v>
       </c>
       <c r="E5">
-        <v>4.875647932408448</v>
+        <v>4.992999149259167</v>
       </c>
       <c r="F5">
-        <v>34.05909904316306</v>
+        <v>32.01913688843307</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.08322740751922</v>
+        <v>4.758929329423185</v>
       </c>
       <c r="I5">
-        <v>5.430677026901648</v>
+        <v>5.032596397584441</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>24.03797457071328</v>
+        <v>22.25235247330119</v>
       </c>
       <c r="L5">
-        <v>5.293168361983798</v>
+        <v>16.99596804656202</v>
       </c>
       <c r="M5">
-        <v>11.77855130829888</v>
+        <v>16.07813881153399</v>
       </c>
       <c r="N5">
-        <v>6.133760937594925</v>
+        <v>5.244327372716899</v>
       </c>
       <c r="O5">
-        <v>10.35391544858938</v>
+        <v>11.42691412405216</v>
       </c>
       <c r="P5">
-        <v>16.88575581181712</v>
+        <v>6.50151156874266</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.13755532884212</v>
+      </c>
+      <c r="R5">
+        <v>16.19097631770069</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.44902677730014</v>
+        <v>12.57888144013259</v>
       </c>
       <c r="C6">
-        <v>6.664830565122243</v>
+        <v>7.33971569923275</v>
       </c>
       <c r="D6">
-        <v>2.100884935698172</v>
+        <v>2.151172599152511</v>
       </c>
       <c r="E6">
-        <v>4.86989751390954</v>
+        <v>4.987616401478462</v>
       </c>
       <c r="F6">
-        <v>34.01155878717567</v>
+        <v>31.98050241466578</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.09496345287257</v>
+        <v>4.7697568290954</v>
       </c>
       <c r="I6">
-        <v>5.443229505243823</v>
+        <v>5.044606333195381</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>24.01214997955455</v>
+        <v>22.23328988766938</v>
       </c>
       <c r="L6">
-        <v>5.289625848610322</v>
+        <v>16.98267002531261</v>
       </c>
       <c r="M6">
-        <v>11.74729981136617</v>
+        <v>16.06523351107347</v>
       </c>
       <c r="N6">
-        <v>6.129203144552414</v>
+        <v>5.241142226826189</v>
       </c>
       <c r="O6">
-        <v>10.33679045812098</v>
+        <v>11.39633283070438</v>
       </c>
       <c r="P6">
-        <v>16.88418159701521</v>
+        <v>6.496710523405492</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.12098440042382</v>
+      </c>
+      <c r="R6">
+        <v>16.19197971037819</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.70083888073071</v>
+        <v>12.81651477971176</v>
       </c>
       <c r="C7">
-        <v>6.808392976979738</v>
+        <v>7.495765931153031</v>
       </c>
       <c r="D7">
-        <v>2.106248720371565</v>
+        <v>2.181743746380518</v>
       </c>
       <c r="E7">
-        <v>4.907370923382837</v>
+        <v>5.02269516330719</v>
       </c>
       <c r="F7">
-        <v>34.20406761676605</v>
+        <v>32.12157626748165</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5.01922227168859</v>
+        <v>4.69994766255895</v>
       </c>
       <c r="I7">
-        <v>5.381611184570049</v>
+        <v>4.990455576704759</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>24.08955723046745</v>
+        <v>22.27362210579343</v>
       </c>
       <c r="L7">
-        <v>5.309491221313854</v>
+        <v>16.99188624227269</v>
       </c>
       <c r="M7">
-        <v>11.93989931490032</v>
+        <v>16.09920336483031</v>
       </c>
       <c r="N7">
-        <v>6.171320334754612</v>
+        <v>5.259246167677246</v>
       </c>
       <c r="O7">
-        <v>10.4424986782251</v>
+        <v>11.58526165824387</v>
       </c>
       <c r="P7">
-        <v>16.86103024337161</v>
+        <v>6.539909195161108</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.22351679016277</v>
+      </c>
+      <c r="R7">
+        <v>16.1570760893833</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.7780928095548</v>
+        <v>13.82928173675022</v>
       </c>
       <c r="C8">
-        <v>7.443541315757805</v>
+        <v>8.152970797233808</v>
       </c>
       <c r="D8">
-        <v>2.127096004520248</v>
+        <v>2.308690748854807</v>
       </c>
       <c r="E8">
-        <v>5.068600834478897</v>
+        <v>5.173644961607423</v>
       </c>
       <c r="F8">
-        <v>35.09086536263518</v>
+        <v>32.78090122995388</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.695467346972255</v>
+        <v>4.401762151300392</v>
       </c>
       <c r="I8">
-        <v>5.113354075872654</v>
+        <v>4.753417206445206</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>24.4610199481689</v>
+        <v>22.47864603042976</v>
       </c>
       <c r="L8">
-        <v>5.395140458864823</v>
+        <v>17.04531088479754</v>
       </c>
       <c r="M8">
-        <v>12.76666623609187</v>
+        <v>16.29902162932998</v>
       </c>
       <c r="N8">
-        <v>6.3521549396808</v>
+        <v>5.337149740721069</v>
       </c>
       <c r="O8">
-        <v>10.90251086046417</v>
+        <v>12.39404486235269</v>
       </c>
       <c r="P8">
-        <v>16.7700316517919</v>
+        <v>6.726428683507617</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.66900241338543</v>
+      </c>
+      <c r="R8">
+        <v>16.01251943193058</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.72153187968888</v>
+        <v>15.64345177233909</v>
       </c>
       <c r="C9">
-        <v>8.686315960827432</v>
+        <v>9.388327938664819</v>
       </c>
       <c r="D9">
-        <v>2.16499439839135</v>
+        <v>2.539742404522396</v>
       </c>
       <c r="E9">
-        <v>5.369137101910614</v>
+        <v>5.455037164190958</v>
       </c>
       <c r="F9">
-        <v>36.87826379959564</v>
+        <v>34.13091964813648</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.099565728459748</v>
+        <v>3.853885833624549</v>
       </c>
       <c r="I9">
-        <v>4.613559446371615</v>
+        <v>4.311067061304963</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>25.23923288796007</v>
+        <v>22.9278417695873</v>
       </c>
       <c r="L9">
-        <v>5.553729512369667</v>
+        <v>17.14884825289618</v>
       </c>
       <c r="M9">
-        <v>14.2803175479348</v>
+        <v>16.83756730912353</v>
       </c>
       <c r="N9">
-        <v>6.692810147944855</v>
+        <v>5.480990096598592</v>
       </c>
       <c r="O9">
-        <v>11.76745572670435</v>
+        <v>13.86754043869535</v>
       </c>
       <c r="P9">
-        <v>16.61339453336307</v>
+        <v>7.080800505317608</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.50428233807438</v>
+      </c>
+      <c r="R9">
+        <v>15.74725624876848</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.96140815467272</v>
+        <v>16.79927265256241</v>
       </c>
       <c r="C10">
-        <v>9.5312139117335</v>
+        <v>10.31186393085198</v>
       </c>
       <c r="D10">
-        <v>2.187172021301803</v>
+        <v>2.694494351855299</v>
       </c>
       <c r="E10">
-        <v>5.542647240849472</v>
+        <v>5.615969558423678</v>
       </c>
       <c r="F10">
-        <v>37.93821486331402</v>
+        <v>34.91143146328302</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.71214531875375</v>
+        <v>3.499826518172894</v>
       </c>
       <c r="I10">
-        <v>4.281170539362222</v>
+        <v>4.019569959894213</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>25.66264459408926</v>
+        <v>23.13883005757742</v>
       </c>
       <c r="L10">
-        <v>5.649087584924379</v>
+        <v>17.10821879951078</v>
       </c>
       <c r="M10">
-        <v>15.27421432817596</v>
+        <v>17.20932890845776</v>
       </c>
       <c r="N10">
-        <v>6.875640654568281</v>
+        <v>5.570059993604885</v>
       </c>
       <c r="O10">
-        <v>12.30507037060517</v>
+        <v>14.83367050646119</v>
       </c>
       <c r="P10">
-        <v>16.44897097290071</v>
+        <v>7.272094774451719</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.02203068664004</v>
+      </c>
+      <c r="R10">
+        <v>15.51729464176999</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.03182698882916</v>
+        <v>16.91500342382932</v>
       </c>
       <c r="C11">
-        <v>9.869809661154092</v>
+        <v>10.61607396640837</v>
       </c>
       <c r="D11">
-        <v>2.153187716735587</v>
+        <v>2.66165127715982</v>
       </c>
       <c r="E11">
-        <v>5.369714042690106</v>
+        <v>5.444336360441493</v>
       </c>
       <c r="F11">
-        <v>36.54503466332267</v>
+        <v>33.6376926748763</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.258690648962019</v>
+        <v>4.081201887163894</v>
       </c>
       <c r="I11">
-        <v>4.213052070270069</v>
+        <v>3.962445231351132</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>24.71026147391305</v>
+        <v>22.30178181027725</v>
       </c>
       <c r="L11">
-        <v>5.61000977919971</v>
+        <v>16.37193380507943</v>
       </c>
       <c r="M11">
-        <v>15.39743747505463</v>
+        <v>16.68839386654794</v>
       </c>
       <c r="N11">
-        <v>6.436713268214081</v>
+        <v>5.561925413252595</v>
       </c>
       <c r="O11">
-        <v>11.98240048434016</v>
+        <v>14.97499702861571</v>
       </c>
       <c r="P11">
-        <v>15.97695690124261</v>
+        <v>6.813220470307808</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.70887654260882</v>
+      </c>
+      <c r="R11">
+        <v>15.13567938437419</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.85591806978599</v>
+        <v>16.79501849693809</v>
       </c>
       <c r="C12">
-        <v>9.961844082032552</v>
+        <v>10.66293952072213</v>
       </c>
       <c r="D12">
-        <v>2.112279479049093</v>
+        <v>2.591487846769691</v>
       </c>
       <c r="E12">
-        <v>5.291923589200056</v>
+        <v>5.368936663304613</v>
       </c>
       <c r="F12">
-        <v>35.1916585260316</v>
+        <v>32.44086087278665</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.274470177755243</v>
+        <v>5.130162828712931</v>
       </c>
       <c r="I12">
-        <v>4.207055066239765</v>
+        <v>3.955385822512207</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.86311188632373</v>
+        <v>21.59367995446255</v>
       </c>
       <c r="L12">
-        <v>5.611894607234805</v>
+        <v>15.8028640160628</v>
       </c>
       <c r="M12">
-        <v>15.30110586276643</v>
+        <v>16.19037091047175</v>
       </c>
       <c r="N12">
-        <v>6.044123456981162</v>
+        <v>5.589238476603215</v>
       </c>
       <c r="O12">
-        <v>11.5966916123147</v>
+        <v>14.89995667513844</v>
       </c>
       <c r="P12">
-        <v>15.65084093505954</v>
+        <v>6.400564974465432</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.33525534089788</v>
+      </c>
+      <c r="R12">
+        <v>14.89485223658599</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.45031272233986</v>
+        <v>16.45980359830602</v>
       </c>
       <c r="C13">
-        <v>9.891485845372099</v>
+        <v>10.53376140490786</v>
       </c>
       <c r="D13">
-        <v>2.051052277632001</v>
+        <v>2.495991091032102</v>
       </c>
       <c r="E13">
-        <v>5.28211708460329</v>
+        <v>5.362396115763147</v>
       </c>
       <c r="F13">
-        <v>33.71059972862323</v>
+        <v>31.16158279107432</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.485125498405058</v>
+        <v>6.361796062351523</v>
       </c>
       <c r="I13">
-        <v>4.260943474174371</v>
+        <v>4.00090032926111</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>22.99531102911972</v>
+        <v>20.8973666876822</v>
       </c>
       <c r="L13">
-        <v>5.641238422959878</v>
+        <v>15.28453659794593</v>
       </c>
       <c r="M13">
-        <v>15.01754824047222</v>
+        <v>15.651543358988</v>
       </c>
       <c r="N13">
-        <v>5.67045729004705</v>
+        <v>5.640582414375949</v>
       </c>
       <c r="O13">
-        <v>11.12726195784041</v>
+        <v>14.64252207210915</v>
       </c>
       <c r="P13">
-        <v>15.40302453810385</v>
+        <v>6.005402388630773</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.8809869302459</v>
+      </c>
+      <c r="R13">
+        <v>14.73479929047916</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.0522774111305</v>
+        <v>16.11861168520318</v>
       </c>
       <c r="C14">
-        <v>9.771751451516804</v>
+        <v>10.36545692887291</v>
       </c>
       <c r="D14">
-        <v>1.99998287286701</v>
+        <v>2.418640404666313</v>
       </c>
       <c r="E14">
-        <v>5.319487975088112</v>
+        <v>5.402115303434502</v>
       </c>
       <c r="F14">
-        <v>32.60291303667006</v>
+        <v>30.21728703864373</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.396994034449264</v>
+        <v>7.283146179454842</v>
       </c>
       <c r="I14">
-        <v>4.327954770030478</v>
+        <v>4.059245173841421</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>22.37350131299385</v>
+        <v>20.41087998836717</v>
       </c>
       <c r="L14">
-        <v>5.679818437925228</v>
+        <v>14.93693758691367</v>
       </c>
       <c r="M14">
-        <v>14.72898300620442</v>
+        <v>15.25615177377622</v>
       </c>
       <c r="N14">
-        <v>5.425884387775573</v>
+        <v>5.692260486026351</v>
       </c>
       <c r="O14">
-        <v>10.7568372729491</v>
+        <v>14.37474205128673</v>
       </c>
       <c r="P14">
-        <v>15.26755072571746</v>
+        <v>5.745130150135068</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.52258178617697</v>
+      </c>
+      <c r="R14">
+        <v>14.66063953890055</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.8990894642641</v>
+        <v>15.98267681926585</v>
       </c>
       <c r="C15">
-        <v>9.712645427590711</v>
+        <v>10.29119812872497</v>
       </c>
       <c r="D15">
-        <v>1.985236675580033</v>
+        <v>2.396469543418059</v>
       </c>
       <c r="E15">
-        <v>5.328399502855094</v>
+        <v>5.411962419253004</v>
       </c>
       <c r="F15">
-        <v>32.29370887203274</v>
+        <v>29.95850483716841</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.618306057809325</v>
+        <v>7.505272880617301</v>
       </c>
       <c r="I15">
-        <v>4.361147777994464</v>
+        <v>4.089320269475447</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>22.20816441233695</v>
+        <v>20.28617044907946</v>
       </c>
       <c r="L15">
-        <v>5.687908546622431</v>
+        <v>14.85318005051881</v>
       </c>
       <c r="M15">
-        <v>14.6159292633967</v>
+        <v>15.14745917135493</v>
       </c>
       <c r="N15">
-        <v>5.368651459951147</v>
+        <v>5.703053656538791</v>
       </c>
       <c r="O15">
-        <v>10.64783754532466</v>
+        <v>14.26787074964627</v>
       </c>
       <c r="P15">
-        <v>15.24606890400593</v>
+        <v>5.684117385597358</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.41719424745788</v>
+      </c>
+      <c r="R15">
+        <v>14.65518242086392</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.43075235925965</v>
+        <v>15.54067511220307</v>
       </c>
       <c r="C16">
-        <v>9.38315336493384</v>
+        <v>9.934618930332126</v>
       </c>
       <c r="D16">
-        <v>1.948701709704411</v>
+        <v>2.350615219121941</v>
       </c>
       <c r="E16">
-        <v>5.250048791069425</v>
+        <v>5.33830641982273</v>
       </c>
       <c r="F16">
-        <v>32.08051304346729</v>
+        <v>29.83088679577745</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.494389747758998</v>
+        <v>7.367989168175834</v>
       </c>
       <c r="I16">
-        <v>4.496659903498904</v>
+        <v>4.209902170845949</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.1755755774855</v>
+        <v>20.31287026325402</v>
       </c>
       <c r="L16">
-        <v>5.637050087294175</v>
+        <v>14.9279446042155</v>
       </c>
       <c r="M16">
-        <v>14.23872279539221</v>
+        <v>15.0965721074756</v>
       </c>
       <c r="N16">
-        <v>5.362860350018208</v>
+        <v>5.649265538733267</v>
       </c>
       <c r="O16">
-        <v>10.49718193156683</v>
+        <v>13.89898073596758</v>
       </c>
       <c r="P16">
-        <v>15.36166442783741</v>
+        <v>5.680238118943705</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.27208737182286</v>
+      </c>
+      <c r="R16">
+        <v>14.77713263498415</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28646628334582</v>
+        <v>15.385117562111</v>
       </c>
       <c r="C17">
-        <v>9.192975104631545</v>
+        <v>9.750904757967579</v>
       </c>
       <c r="D17">
-        <v>1.949204577523978</v>
+        <v>2.35770097261258</v>
       </c>
       <c r="E17">
-        <v>5.159755911742558</v>
+        <v>5.250716684018214</v>
       </c>
       <c r="F17">
-        <v>32.51316546123471</v>
+        <v>30.24107963133315</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.897444125110906</v>
+        <v>6.753597077046433</v>
       </c>
       <c r="I17">
-        <v>4.565805891168708</v>
+        <v>4.272234763565557</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>22.48069338796027</v>
+        <v>20.59150108484436</v>
       </c>
       <c r="L17">
-        <v>5.57314298009757</v>
+        <v>15.17642487153158</v>
       </c>
       <c r="M17">
-        <v>14.1051869847864</v>
+        <v>15.26387302577974</v>
       </c>
       <c r="N17">
-        <v>5.485131756282298</v>
+        <v>5.576676701746811</v>
       </c>
       <c r="O17">
-        <v>10.58268662235615</v>
+        <v>13.76031123553357</v>
       </c>
       <c r="P17">
-        <v>15.51946306101594</v>
+        <v>5.81207400932579</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.35545869703023</v>
+      </c>
+      <c r="R17">
+        <v>14.90901658901332</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.42318282110719</v>
+        <v>15.47661604617482</v>
       </c>
       <c r="C18">
-        <v>9.092908203266296</v>
+        <v>9.687636226188985</v>
       </c>
       <c r="D18">
-        <v>1.998608055456266</v>
+        <v>2.406596401477278</v>
       </c>
       <c r="E18">
-        <v>5.102930574895832</v>
+        <v>5.194233048790818</v>
       </c>
       <c r="F18">
-        <v>33.58387308830756</v>
+        <v>31.19091603095282</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.892370075664208</v>
+        <v>5.722751502812681</v>
       </c>
       <c r="I18">
-        <v>4.575040810788201</v>
+        <v>4.279767794417174</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.1405854655386</v>
+        <v>21.14528298054795</v>
       </c>
       <c r="L18">
-        <v>5.516128385492877</v>
+        <v>15.63024442349931</v>
       </c>
       <c r="M18">
-        <v>14.17376495328453</v>
+        <v>15.64877391732953</v>
       </c>
       <c r="N18">
-        <v>5.750037200986519</v>
+        <v>5.503414763600855</v>
       </c>
       <c r="O18">
-        <v>10.88405849859473</v>
+        <v>13.81162643039953</v>
       </c>
       <c r="P18">
-        <v>15.7515935141831</v>
+        <v>6.093354294300419</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.64771632927662</v>
+      </c>
+      <c r="R18">
+        <v>15.08099035644537</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.74113771072706</v>
+        <v>15.7279695803231</v>
       </c>
       <c r="C19">
-        <v>9.098635040972134</v>
+        <v>9.74999080093373</v>
       </c>
       <c r="D19">
-        <v>2.071871974634923</v>
+        <v>2.495521327908244</v>
       </c>
       <c r="E19">
-        <v>5.157397222735476</v>
+        <v>5.24568126566721</v>
       </c>
       <c r="F19">
-        <v>35.02214959896872</v>
+        <v>32.44347425066956</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.807083654299644</v>
+        <v>4.604963242156051</v>
       </c>
       <c r="I19">
-        <v>4.547772589391293</v>
+        <v>4.258309285825336</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>23.99770418219921</v>
+        <v>21.84464163306109</v>
       </c>
       <c r="L19">
-        <v>5.50648346593481</v>
+        <v>16.18894786924212</v>
       </c>
       <c r="M19">
-        <v>14.38503721891282</v>
+        <v>16.1526539547913</v>
       </c>
       <c r="N19">
-        <v>6.140188483327948</v>
+        <v>5.470763667744894</v>
       </c>
       <c r="O19">
-        <v>11.32765535271386</v>
+        <v>13.99816000576551</v>
       </c>
       <c r="P19">
-        <v>16.03289162982242</v>
+        <v>6.503325600871388</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.07754509440863</v>
+      </c>
+      <c r="R19">
+        <v>15.27903756359541</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.59253510807875</v>
+        <v>16.45532062436416</v>
       </c>
       <c r="C20">
-        <v>9.354094312751274</v>
+        <v>10.11285855485907</v>
       </c>
       <c r="D20">
-        <v>2.194409835778995</v>
+        <v>2.672023692614022</v>
       </c>
       <c r="E20">
-        <v>5.493880502291951</v>
+        <v>5.57067902012911</v>
       </c>
       <c r="F20">
-        <v>37.53111600542096</v>
+        <v>34.58718324871393</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.817041298954099</v>
+        <v>3.595565468160817</v>
       </c>
       <c r="I20">
-        <v>4.392288569249137</v>
+        <v>4.124166416067849</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>25.45364605819798</v>
+        <v>22.99580708177766</v>
       </c>
       <c r="L20">
-        <v>5.619971967666856</v>
+        <v>17.0515705444664</v>
       </c>
       <c r="M20">
-        <v>14.99845886063448</v>
+        <v>17.04351414960865</v>
       </c>
       <c r="N20">
-        <v>6.834568583270011</v>
+        <v>5.543456261727975</v>
       </c>
       <c r="O20">
-        <v>12.15216912488513</v>
+        <v>14.56646523879839</v>
       </c>
       <c r="P20">
-        <v>16.45866199405789</v>
+        <v>7.228192102451287</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.87508164910305</v>
+      </c>
+      <c r="R20">
+        <v>15.55165481316824</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.59514590273055</v>
+        <v>17.37881576924907</v>
       </c>
       <c r="C21">
-        <v>9.978880962744141</v>
+        <v>10.808117792715</v>
       </c>
       <c r="D21">
-        <v>2.24533776531203</v>
+        <v>2.804170580358141</v>
       </c>
       <c r="E21">
-        <v>5.682662305001149</v>
+        <v>5.748531948633802</v>
       </c>
       <c r="F21">
-        <v>38.68938153756967</v>
+        <v>35.49071650237558</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.486610182749481</v>
+        <v>3.291629076954012</v>
       </c>
       <c r="I21">
-        <v>4.127071492208763</v>
+        <v>3.891288148165729</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>25.99558405872261</v>
+        <v>23.3374040377318</v>
       </c>
       <c r="L21">
-        <v>5.713453849081968</v>
+        <v>17.155209935311</v>
       </c>
       <c r="M21">
-        <v>15.79341669844556</v>
+        <v>17.47814859457497</v>
       </c>
       <c r="N21">
-        <v>7.067486401425964</v>
+        <v>5.626070290945782</v>
       </c>
       <c r="O21">
-        <v>12.65575621918932</v>
+        <v>15.33393688470057</v>
       </c>
       <c r="P21">
-        <v>16.41154302898255</v>
+        <v>7.472030420798692</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.35997772011981</v>
+      </c>
+      <c r="R21">
+        <v>15.43182421400144</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.2183932208069</v>
+        <v>17.95474589730152</v>
       </c>
       <c r="C22">
-        <v>10.35725712925184</v>
+        <v>11.22728768553192</v>
       </c>
       <c r="D22">
-        <v>2.297002485817774</v>
+        <v>2.875590523143745</v>
       </c>
       <c r="E22">
-        <v>5.786011780128348</v>
+        <v>5.845203897919129</v>
       </c>
       <c r="F22">
-        <v>39.38014901309393</v>
+        <v>36.02894223043832</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.285349028030701</v>
+        <v>3.107327467208126</v>
       </c>
       <c r="I22">
-        <v>3.951136401069875</v>
+        <v>3.734024911155806</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>26.32002029793229</v>
+        <v>23.54065229979763</v>
       </c>
       <c r="L22">
-        <v>5.767957801121041</v>
+        <v>17.20189821984702</v>
       </c>
       <c r="M22">
-        <v>16.28621488432308</v>
+        <v>17.75826552746028</v>
       </c>
       <c r="N22">
-        <v>7.182289102992898</v>
+        <v>5.675226088329118</v>
       </c>
       <c r="O22">
-        <v>12.94924351352328</v>
+        <v>15.80995555850562</v>
       </c>
       <c r="P22">
-        <v>16.37056086289673</v>
+        <v>7.592927970117476</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.64205398022857</v>
+      </c>
+      <c r="R22">
+        <v>15.34699610895277</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9056689939612</v>
+        <v>17.6662951923546</v>
       </c>
       <c r="C23">
-        <v>10.14218961138153</v>
+        <v>10.99106304198239</v>
       </c>
       <c r="D23">
-        <v>2.262719338198012</v>
+        <v>2.830920890889051</v>
       </c>
       <c r="E23">
-        <v>5.731688815256165</v>
+        <v>5.794379828076622</v>
       </c>
       <c r="F23">
-        <v>39.05640014059901</v>
+        <v>35.7829804320994</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.390798490919897</v>
+        <v>3.203883325207608</v>
       </c>
       <c r="I23">
-        <v>4.034895472930568</v>
+        <v>3.806115232252511</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>26.18128176857966</v>
+        <v>23.46299241629617</v>
       </c>
       <c r="L23">
-        <v>5.740391629900042</v>
+        <v>17.2007620453372</v>
       </c>
       <c r="M23">
-        <v>16.03137690283919</v>
+        <v>17.63119506516587</v>
       </c>
       <c r="N23">
-        <v>7.117664094784207</v>
+        <v>5.650220839915944</v>
       </c>
       <c r="O23">
-        <v>12.79724848454926</v>
+        <v>15.56372925042845</v>
       </c>
       <c r="P23">
-        <v>16.40421707416227</v>
+        <v>7.525202011695531</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.49591457818019</v>
+      </c>
+      <c r="R23">
+        <v>15.40140403029561</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.64569626802517</v>
+        <v>16.50072349681045</v>
       </c>
       <c r="C24">
-        <v>9.324921874994747</v>
+        <v>10.08970986809511</v>
       </c>
       <c r="D24">
-        <v>2.194786264061927</v>
+        <v>2.669459631476282</v>
       </c>
       <c r="E24">
-        <v>5.521788934530051</v>
+        <v>5.597955959343301</v>
       </c>
       <c r="F24">
-        <v>37.74958855869485</v>
+        <v>34.78239209829285</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.800304162744511</v>
+        <v>3.579215198075248</v>
       </c>
       <c r="I24">
-        <v>4.375251089245383</v>
+        <v>4.104904882114644</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>25.60004143896301</v>
+        <v>23.12101083489287</v>
       </c>
       <c r="L24">
-        <v>5.631643102915733</v>
+        <v>17.15220869519929</v>
       </c>
       <c r="M24">
-        <v>15.02408263113285</v>
+        <v>17.13286651639407</v>
       </c>
       <c r="N24">
-        <v>6.875252581382821</v>
+        <v>5.551785624373089</v>
       </c>
       <c r="O24">
-        <v>12.20150808339928</v>
+        <v>14.58914285415828</v>
       </c>
       <c r="P24">
-        <v>16.5142037255479</v>
+        <v>7.271028057493004</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.92268642336377</v>
+      </c>
+      <c r="R24">
+        <v>15.59371931702191</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.18739161987332</v>
+        <v>15.14568276321086</v>
       </c>
       <c r="C25">
-        <v>8.387940245029773</v>
+        <v>9.059837319040092</v>
       </c>
       <c r="D25">
-        <v>2.162103636056278</v>
+        <v>2.48931743788439</v>
       </c>
       <c r="E25">
-        <v>5.288433307503892</v>
+        <v>5.379490918154587</v>
       </c>
       <c r="F25">
-        <v>36.32573849849215</v>
+        <v>33.70029239956817</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.259136047728407</v>
+        <v>4.000476334981813</v>
       </c>
       <c r="I25">
-        <v>4.758452191764508</v>
+        <v>4.442787946334867</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>24.97450607322989</v>
+        <v>22.75719901880234</v>
       </c>
       <c r="L25">
-        <v>5.509695298722515</v>
+        <v>17.08536076079599</v>
       </c>
       <c r="M25">
-        <v>13.87302234966785</v>
+        <v>16.64522740265443</v>
       </c>
       <c r="N25">
-        <v>6.607341495238446</v>
+        <v>5.44128297407428</v>
       </c>
       <c r="O25">
-        <v>11.53211437835893</v>
+        <v>13.47207358159</v>
       </c>
       <c r="P25">
-        <v>16.63685656021696</v>
+        <v>6.991121280878559</v>
       </c>
       <c r="Q25">
+        <v>11.27740353140694</v>
+      </c>
+      <c r="R25">
+        <v>15.80401392785581</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
